--- a/黑社会/黑社会.xlsx
+++ b/黑社会/黑社会.xlsx
@@ -4,21 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="161">
   <si>
     <t>CP-5-2应急预案</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -208,18 +207,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>游戏单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过招募，或其他手段获得的英雄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>编号A005-01号移民船，达摩，配有5支护航编队，每支护航编队由1艘太阿级战列舰带头，总计10艘战舰组成。
 重火力：真理大炮
 轻火力：</t>
@@ -702,10 +689,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>发现矿物的能力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>钓鱼的强度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -779,6 +762,10 @@
   </si>
   <si>
     <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现各种资源的能力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -887,16 +874,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -904,14 +885,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -920,9 +895,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -938,6 +910,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1248,21 +1223,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="85.625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="85.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="108" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1270,7 +1245,7 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1278,7 +1253,7 @@
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1286,7 +1261,7 @@
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1294,7 +1269,7 @@
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1302,7 +1277,7 @@
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1310,7 +1285,7 @@
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1318,7 +1293,7 @@
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1326,15 +1301,15 @@
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>24</v>
+      <c r="B9" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1342,16 +1317,16 @@
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1363,422 +1338,386 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="15.625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="89.875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G20" sqref="G20"/>
+      <selection pane="bottomRight" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="3.75" style="14" customWidth="1"/>
-    <col min="3" max="3" width="21.75" style="9" customWidth="1"/>
-    <col min="4" max="4" width="21.875" style="9" customWidth="1"/>
-    <col min="5" max="5" width="23.625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="23.375" style="9" customWidth="1"/>
-    <col min="7" max="8" width="23.25" style="9" customWidth="1"/>
-    <col min="9" max="9" width="25.75" style="9" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="3.625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="3.75" style="9" customWidth="1"/>
+    <col min="3" max="3" width="21.75" style="5" customWidth="1"/>
+    <col min="4" max="4" width="21.875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="23.625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="23.375" style="5" customWidth="1"/>
+    <col min="7" max="8" width="23.25" style="5" customWidth="1"/>
+    <col min="9" max="9" width="25.75" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7">
+        <v>10</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="7">
+        <v>11</v>
+      </c>
+      <c r="B3" s="7">
+        <v>30</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="7">
+        <v>31</v>
+      </c>
+      <c r="B4" s="7">
+        <v>50</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A5" s="7">
+        <v>51</v>
+      </c>
+      <c r="B5" s="7">
+        <v>70</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="7">
+        <v>71</v>
+      </c>
+      <c r="B6" s="7">
+        <v>90</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="7">
+        <v>91</v>
+      </c>
+      <c r="B7" s="7">
+        <v>110</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="7">
+        <v>111</v>
+      </c>
+      <c r="B8" s="7">
+        <v>140</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="11">
-        <v>1</v>
-      </c>
-      <c r="B2" s="11">
-        <v>10</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="E8" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+      <c r="A9" s="7">
+        <v>141</v>
+      </c>
+      <c r="B9" s="7">
+        <v>170</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="7">
+        <v>171</v>
+      </c>
+      <c r="B10" s="7">
+        <v>200</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="11">
-        <v>11</v>
-      </c>
-      <c r="B3" s="11">
-        <v>30</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="11">
-        <v>31</v>
-      </c>
-      <c r="B4" s="11">
-        <v>50</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="G4" s="10" t="s">
+      <c r="F10" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+      <c r="A11" s="7">
+        <v>201</v>
+      </c>
+      <c r="B11" s="7">
+        <v>250</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="H4" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A5" s="11">
-        <v>51</v>
-      </c>
-      <c r="B5" s="11">
-        <v>70</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10" t="s">
+      <c r="H11" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I11" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="11">
-        <v>71</v>
-      </c>
-      <c r="B6" s="11">
-        <v>90</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="11">
-        <v>91</v>
-      </c>
-      <c r="B7" s="11">
-        <v>110</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="11">
-        <v>111</v>
-      </c>
-      <c r="B8" s="11">
-        <v>140</v>
-      </c>
-      <c r="C8" s="10" t="s">
+    <row r="12" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+      <c r="A12" s="7">
+        <v>251</v>
+      </c>
+      <c r="B12" s="7">
+        <v>300</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="G8" s="10" t="s">
+      <c r="D12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="H8" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="I8" s="10" t="s">
+      <c r="H12" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="I12" s="6" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="54" x14ac:dyDescent="0.15">
-      <c r="A9" s="11">
-        <v>141</v>
-      </c>
-      <c r="B9" s="11">
-        <v>170</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="11">
-        <v>171</v>
-      </c>
-      <c r="B10" s="11">
-        <v>200</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="54" x14ac:dyDescent="0.15">
-      <c r="A11" s="11">
-        <v>201</v>
-      </c>
-      <c r="B11" s="11">
-        <v>250</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="54" x14ac:dyDescent="0.15">
-      <c r="A12" s="11">
-        <v>251</v>
-      </c>
-      <c r="B12" s="11">
-        <v>300</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>105</v>
-      </c>
-    </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B13" s="9"/>
+      <c r="B13" s="5"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B14" s="9"/>
+      <c r="B14" s="5"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B15" s="9"/>
+      <c r="B15" s="5"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B16" s="9"/>
+      <c r="B16" s="5"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B17" s="9"/>
+      <c r="B17" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1790,12 +1729,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1804,7 +1743,7 @@
     <col min="2" max="2" width="8.125" customWidth="1"/>
     <col min="3" max="3" width="33.5" customWidth="1"/>
     <col min="4" max="4" width="5.25" customWidth="1"/>
-    <col min="5" max="5" width="5.5" customWidth="1"/>
+    <col min="5" max="5" width="5" customWidth="1"/>
     <col min="6" max="6" width="4.75" customWidth="1"/>
     <col min="7" max="7" width="4.875" customWidth="1"/>
     <col min="8" max="8" width="5" customWidth="1"/>
@@ -1814,493 +1753,571 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="D1" s="18" t="s">
+      <c r="A1" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="E1" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="F1" s="18" t="s">
+      <c r="I1" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="J1" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12">
+        <v>1</v>
+      </c>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="15"/>
+      <c r="B3" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="H1" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="J1" s="18" t="s">
+      <c r="C3" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12">
+        <v>1</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="15"/>
+      <c r="B4" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12">
+        <v>1</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="15"/>
+      <c r="B5" s="12" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="19" t="s">
+      <c r="C5" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12">
+        <v>1</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="15"/>
+      <c r="B6" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="12">
+        <v>1</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="15"/>
+      <c r="B7" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12">
+        <v>1</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12">
+        <v>1</v>
+      </c>
+      <c r="I7" s="12">
+        <v>1</v>
+      </c>
+      <c r="J7" s="12"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12">
+        <v>1</v>
+      </c>
+      <c r="I8" s="12">
+        <v>1</v>
+      </c>
+      <c r="J8" s="12"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="15"/>
+      <c r="B9" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12">
+        <v>1</v>
+      </c>
+      <c r="J9" s="12"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="15"/>
+      <c r="B10" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12">
+        <v>1</v>
+      </c>
+      <c r="I10" s="12">
+        <v>1</v>
+      </c>
+      <c r="J10" s="12"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12">
+        <v>1</v>
+      </c>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="15"/>
+      <c r="B12" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12">
+        <v>1</v>
+      </c>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="15"/>
+      <c r="B13" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12">
+        <v>1</v>
+      </c>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" s="15"/>
+      <c r="B14" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="19"/>
-      <c r="B3" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="19"/>
-      <c r="B4" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="19"/>
-      <c r="B5" s="17" t="s">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12">
+        <v>1</v>
+      </c>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" s="15"/>
+      <c r="B15" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12">
+        <v>1</v>
+      </c>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16" s="15"/>
+      <c r="B16" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12">
+        <v>1</v>
+      </c>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A17" s="15"/>
+      <c r="B17" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12">
+        <v>1</v>
+      </c>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A18" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="19"/>
-      <c r="B6" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="19"/>
-      <c r="B7" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="19" t="s">
+      <c r="B18" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12">
+        <v>1</v>
+      </c>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A19" s="15"/>
+      <c r="B19" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12">
+        <v>1</v>
+      </c>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A20" s="15"/>
+      <c r="B20" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12">
+        <v>1</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12">
+        <v>1</v>
+      </c>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A21" s="15"/>
+      <c r="B21" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12">
+        <v>1</v>
+      </c>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12">
+        <v>1</v>
+      </c>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A22" s="15"/>
+      <c r="B22" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12">
+        <v>1</v>
+      </c>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A23" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12">
+        <v>1</v>
+      </c>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A24" s="15"/>
+      <c r="B24" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12">
+        <v>1</v>
+      </c>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A25" s="15"/>
+      <c r="B25" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12">
+        <v>1</v>
+      </c>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A26" s="15"/>
+      <c r="B26" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12">
+        <v>1</v>
+      </c>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A27" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="B27" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A28" s="15"/>
+      <c r="B28" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="19"/>
-      <c r="B9" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="19"/>
-      <c r="B10" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="B11" s="17" t="s">
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A29" s="15"/>
+      <c r="B29" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="C11" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="19"/>
-      <c r="B12" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="19"/>
-      <c r="B13" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="19"/>
-      <c r="B14" s="17" t="s">
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A30" s="15"/>
+      <c r="B30" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="19"/>
-      <c r="B15" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="19"/>
-      <c r="B16" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A17" s="19"/>
-      <c r="B17" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A18" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A19" s="19"/>
-      <c r="B19" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="19"/>
-      <c r="B20" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="19"/>
-      <c r="B21" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A22" s="19"/>
-      <c r="B22" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A23" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A24" s="19"/>
-      <c r="B24" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A25" s="19"/>
-      <c r="B25" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A26" s="19"/>
-      <c r="B26" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A27" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A28" s="19"/>
-      <c r="B28" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A29" s="19"/>
-      <c r="B29" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A30" s="19"/>
-      <c r="B30" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A31" s="15"/>
+      <c r="A31" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A27:A30"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A17"/>
     <mergeCell ref="A18:A22"/>
     <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A27:A30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/黑社会/黑社会.xlsx
+++ b/黑社会/黑社会.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="166">
   <si>
     <t>CP-5-2应急预案</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -766,6 +766,26 @@
   </si>
   <si>
     <t>发现各种资源的能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锄地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浇水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>砍树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>割草</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1733,8 +1753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2308,14 +2328,40 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/黑社会/黑社会.xlsx
+++ b/黑社会/黑社会.xlsx
@@ -4,20 +4,23 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet4" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId4"/>
+    <sheet name="概述" sheetId="7" r:id="rId1"/>
+    <sheet name="背景设定" sheetId="1" r:id="rId2"/>
+    <sheet name="属性设定" sheetId="4" r:id="rId3"/>
+    <sheet name="技能" sheetId="5" r:id="rId4"/>
+    <sheet name="作物数据" sheetId="6" r:id="rId5"/>
+    <sheet name="装饰物" sheetId="8" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="297">
   <si>
     <t>CP-5-2应急预案</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -769,7 +772,511 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>锄地</t>
+    <t>小麦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韭菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>春</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辣椒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青椒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洋葱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花椰菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甜豆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豌豆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莴苣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菠菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丝瓜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦瓜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬瓜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦笋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄瓜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南瓜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空心菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙须菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竹笋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西红柿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茄子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卷心菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莲藕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芸豆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扁豆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>棉花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大豆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芝麻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稻子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甜菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大麦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蚕豆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土豆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>番石榴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>琵琶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桑葚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樱桃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草莓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青枣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西瓜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菠萝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芒果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柠檬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百香果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火龙果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荔枝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猕猴桃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香蕉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>椰子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柚子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柿子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木瓜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苹果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘蔗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>葡萄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨桃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橘子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红枣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核桃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪梨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木瓜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔬菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菠萝蜜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>植物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>种地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可破坏物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树苗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工具数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杂草</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小木棒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小石头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大石头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树桩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>野果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小矿石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尸体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骨头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>屎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动物巢穴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虫巢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可破坏物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出现等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锄头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斧子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲击泵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洒水器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻土</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>让土地变得可耕种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>砸矿石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挖掉虫巢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挖掉虫巢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>割草</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -777,15 +1284,41 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>砍树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>石头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>割草</t>
+    <t>挖尸体/骨头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挖屎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破坏野兽巢穴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>砍小树棍，树，树桩，大树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>砸各种石头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有安放土壤净化器的地方才能种植
+初始玩家拥有一片荒地，荒地地表随机刷出大小树，树墩，大小石头，杂草。荒地附近固定刷出一片水源。
+玩家携带工具：锄头，冲击泵，电浆斧，洒水器。
+携带武器：冲锋枪，激光剑。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开局一个在基地一个净化器，只能在基地周围种树和建造。
+随着游戏的推进，可以开辟数块其他位置的种地点。
+需要玩家清理基地周围的敌人。并在敌人的攻击下保卫基地
+地图上分布着数个资源点，玩家需要清除资源点周围的敌人，并建立防守，防止敌人的破坏。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -894,7 +1427,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -913,9 +1446,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -936,6 +1466,38 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1241,10 +1803,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="17"/>
+    <col min="2" max="2" width="51.125" style="5" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1356,7 +1948,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
@@ -1364,13 +1956,13 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C36" sqref="C36"/>
+      <selection pane="bottomRight" activeCell="D34" sqref="D34:D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="3.75" style="9" customWidth="1"/>
+    <col min="2" max="2" width="3.75" style="8" customWidth="1"/>
     <col min="3" max="3" width="21.75" style="5" customWidth="1"/>
     <col min="4" max="4" width="21.875" style="5" customWidth="1"/>
     <col min="5" max="5" width="23.625" style="5" customWidth="1"/>
@@ -1381,37 +1973,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15">
         <v>10</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -1437,10 +2029,10 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="7">
+      <c r="A3" s="15">
         <v>11</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="15">
         <v>30</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -1466,10 +2058,10 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="7">
+      <c r="A4" s="15">
         <v>31</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="15">
         <v>50</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -1495,10 +2087,10 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A5" s="7">
+      <c r="A5" s="15">
         <v>51</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="15">
         <v>70</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -1522,10 +2114,10 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="7">
+      <c r="A6" s="15">
         <v>71</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="15">
         <v>90</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1551,10 +2143,10 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="7">
+      <c r="A7" s="15">
         <v>91</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="15">
         <v>110</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -1580,10 +2172,10 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="7">
+      <c r="A8" s="15">
         <v>111</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="15">
         <v>140</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -1609,10 +2201,10 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="54" x14ac:dyDescent="0.15">
-      <c r="A9" s="7">
+      <c r="A9" s="15">
         <v>141</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="15">
         <v>170</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -1638,10 +2230,10 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="7">
+      <c r="A10" s="15">
         <v>171</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="15">
         <v>200</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -1659,7 +2251,7 @@
       <c r="G10" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="10" t="s">
         <v>90</v>
       </c>
       <c r="I10" s="6" t="s">
@@ -1667,10 +2259,10 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="54" x14ac:dyDescent="0.15">
-      <c r="A11" s="7">
+      <c r="A11" s="15">
         <v>201</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="15">
         <v>250</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -1688,7 +2280,7 @@
       <c r="G11" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="10" t="s">
         <v>92</v>
       </c>
       <c r="I11" s="6" t="s">
@@ -1696,10 +2288,10 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="54" x14ac:dyDescent="0.15">
-      <c r="A12" s="7">
+      <c r="A12" s="15">
         <v>251</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="15">
         <v>300</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -1717,7 +2309,7 @@
       <c r="G12" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="10" t="s">
         <v>93</v>
       </c>
       <c r="I12" s="6" t="s">
@@ -1749,12 +2341,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1773,543 +2365,543 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="12" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12">
-        <v>1</v>
-      </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11">
+        <v>1</v>
+      </c>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="15"/>
-      <c r="B3" s="12" t="s">
+      <c r="A3" s="14"/>
+      <c r="B3" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12">
-        <v>1</v>
-      </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11">
+        <v>1</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="15"/>
-      <c r="B4" s="12" t="s">
+      <c r="A4" s="14"/>
+      <c r="B4" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12">
-        <v>1</v>
-      </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11">
+        <v>1</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="15"/>
-      <c r="B5" s="12" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12">
-        <v>1</v>
-      </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11">
+        <v>1</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="15"/>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="14"/>
+      <c r="B6" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="D6" s="12">
-        <v>1</v>
-      </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
+      <c r="D6" s="11">
+        <v>1</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="15"/>
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12">
-        <v>1</v>
-      </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12">
-        <v>1</v>
-      </c>
-      <c r="I7" s="12">
-        <v>1</v>
-      </c>
-      <c r="J7" s="12"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11">
+        <v>1</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11">
+        <v>1</v>
+      </c>
+      <c r="I7" s="11">
+        <v>1</v>
+      </c>
+      <c r="J7" s="11"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12">
-        <v>1</v>
-      </c>
-      <c r="I8" s="12">
-        <v>1</v>
-      </c>
-      <c r="J8" s="12"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11">
+        <v>1</v>
+      </c>
+      <c r="I8" s="11">
+        <v>1</v>
+      </c>
+      <c r="J8" s="11"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="15"/>
-      <c r="B9" s="12" t="s">
+      <c r="A9" s="14"/>
+      <c r="B9" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12">
-        <v>1</v>
-      </c>
-      <c r="J9" s="12"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11">
+        <v>1</v>
+      </c>
+      <c r="J9" s="11"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="15"/>
-      <c r="B10" s="12" t="s">
+      <c r="A10" s="14"/>
+      <c r="B10" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12">
-        <v>1</v>
-      </c>
-      <c r="I10" s="12">
-        <v>1</v>
-      </c>
-      <c r="J10" s="12"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11">
+        <v>1</v>
+      </c>
+      <c r="I10" s="11">
+        <v>1</v>
+      </c>
+      <c r="J10" s="11"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12">
-        <v>1</v>
-      </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11">
+        <v>1</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="15"/>
-      <c r="B12" s="12" t="s">
+      <c r="A12" s="14"/>
+      <c r="B12" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12">
-        <v>1</v>
-      </c>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11">
+        <v>1</v>
+      </c>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="15"/>
-      <c r="B13" s="12" t="s">
+      <c r="A13" s="14"/>
+      <c r="B13" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12">
-        <v>1</v>
-      </c>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11">
+        <v>1</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="15"/>
-      <c r="B14" s="12" t="s">
+      <c r="A14" s="14"/>
+      <c r="B14" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12">
-        <v>1</v>
-      </c>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11">
+        <v>1</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="15"/>
-      <c r="B15" s="12" t="s">
+      <c r="A15" s="14"/>
+      <c r="B15" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12">
-        <v>1</v>
-      </c>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11">
+        <v>1</v>
+      </c>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="15"/>
-      <c r="B16" s="12" t="s">
+      <c r="A16" s="14"/>
+      <c r="B16" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12">
-        <v>1</v>
-      </c>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11">
+        <v>1</v>
+      </c>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A17" s="15"/>
-      <c r="B17" s="12" t="s">
+      <c r="A17" s="14"/>
+      <c r="B17" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12">
-        <v>1</v>
-      </c>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11">
+        <v>1</v>
+      </c>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12">
-        <v>1</v>
-      </c>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11">
+        <v>1</v>
+      </c>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A19" s="15"/>
-      <c r="B19" s="12" t="s">
+      <c r="A19" s="14"/>
+      <c r="B19" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12">
-        <v>1</v>
-      </c>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11">
+        <v>1</v>
+      </c>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="15"/>
-      <c r="B20" s="12" t="s">
+      <c r="A20" s="14"/>
+      <c r="B20" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12">
-        <v>1</v>
-      </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12">
-        <v>1</v>
-      </c>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11">
+        <v>1</v>
+      </c>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11">
+        <v>1</v>
+      </c>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="15"/>
-      <c r="B21" s="12" t="s">
+      <c r="A21" s="14"/>
+      <c r="B21" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12">
-        <v>1</v>
-      </c>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12">
-        <v>1</v>
-      </c>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11">
+        <v>1</v>
+      </c>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11">
+        <v>1</v>
+      </c>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A22" s="15"/>
-      <c r="B22" s="12" t="s">
+      <c r="A22" s="14"/>
+      <c r="B22" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12">
-        <v>1</v>
-      </c>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11">
+        <v>1</v>
+      </c>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12">
-        <v>1</v>
-      </c>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11">
+        <v>1</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A24" s="15"/>
-      <c r="B24" s="12" t="s">
+      <c r="A24" s="14"/>
+      <c r="B24" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12">
-        <v>1</v>
-      </c>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11">
+        <v>1</v>
+      </c>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A25" s="15"/>
-      <c r="B25" s="12" t="s">
+      <c r="A25" s="14"/>
+      <c r="B25" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12">
-        <v>1</v>
-      </c>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11">
+        <v>1</v>
+      </c>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A26" s="15"/>
-      <c r="B26" s="12" t="s">
+      <c r="A26" s="14"/>
+      <c r="B26" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12">
-        <v>1</v>
-      </c>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11">
+        <v>1</v>
+      </c>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A28" s="15"/>
-      <c r="B28" s="12" t="s">
+      <c r="A28" s="14"/>
+      <c r="B28" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A29" s="15"/>
-      <c r="B29" s="12" t="s">
+      <c r="A29" s="14"/>
+      <c r="B29" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A30" s="15"/>
-      <c r="B30" s="12" t="s">
+      <c r="A30" s="14"/>
+      <c r="B30" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A31" s="10"/>
+      <c r="A31" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2326,39 +2918,1898 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:N82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="6.75" customWidth="1"/>
+    <col min="2" max="2" width="9" style="21"/>
+    <col min="3" max="6" width="3.75" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.625" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="3.75" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="5.625" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.25" customWidth="1"/>
+    <col min="14" max="14" width="5.625" style="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="21"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="L6" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="M6" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="N6" s="19" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B7" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="C7" s="21">
+        <v>1</v>
+      </c>
+      <c r="D7" s="21">
+        <v>1</v>
+      </c>
+      <c r="G7" s="21">
+        <v>1</v>
+      </c>
+      <c r="K7" s="21">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B8" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="C8" s="21">
+        <v>1</v>
+      </c>
+      <c r="G8" s="21">
+        <v>1</v>
+      </c>
+      <c r="K8" s="21">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B9" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="C9" s="21">
+        <v>1</v>
+      </c>
+      <c r="F9" s="21">
+        <v>1</v>
+      </c>
+      <c r="G9" s="21">
+        <v>1</v>
+      </c>
+      <c r="K9" s="21">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B10" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="C10" s="21">
+        <v>1</v>
+      </c>
+      <c r="F10" s="21">
+        <v>1</v>
+      </c>
+      <c r="G10" s="21">
+        <v>1</v>
+      </c>
+      <c r="K10" s="21">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B11" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="C11" s="21">
+        <v>1</v>
+      </c>
+      <c r="F11" s="21">
+        <v>1</v>
+      </c>
+      <c r="G11" s="21">
+        <v>1</v>
+      </c>
+      <c r="K11" s="21">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B12" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="C12" s="21">
+        <v>1</v>
+      </c>
+      <c r="G12" s="21">
+        <v>1</v>
+      </c>
+      <c r="J12" s="21">
+        <v>1</v>
+      </c>
+      <c r="K12" s="21">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>12</v>
+      </c>
+      <c r="N12" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B13" s="21" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+      <c r="C13" s="21">
+        <v>1</v>
+      </c>
+      <c r="G13" s="21">
+        <v>1</v>
+      </c>
+      <c r="J13" s="21">
+        <v>1</v>
+      </c>
+      <c r="K13" s="21">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>5</v>
+      </c>
+      <c r="N13" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B14" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="C14" s="21">
+        <v>1</v>
+      </c>
+      <c r="D14" s="21">
+        <v>1</v>
+      </c>
+      <c r="G14" s="21">
+        <v>1</v>
+      </c>
+      <c r="J14" s="21">
+        <v>1</v>
+      </c>
+      <c r="K14" s="21">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>13</v>
+      </c>
+      <c r="N14" s="21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B15" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="C15" s="21">
+        <v>1</v>
+      </c>
+      <c r="G15" s="21">
+        <v>1</v>
+      </c>
+      <c r="J15" s="21">
+        <v>1</v>
+      </c>
+      <c r="K15" s="21">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>10</v>
+      </c>
+      <c r="N15" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B16" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="C16" s="21">
+        <v>1</v>
+      </c>
+      <c r="D16" s="21">
+        <v>1</v>
+      </c>
+      <c r="G16" s="21">
+        <v>1</v>
+      </c>
+      <c r="K16" s="21">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B17" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="C17" s="21">
+        <v>1</v>
+      </c>
+      <c r="G17" s="21">
+        <v>1</v>
+      </c>
+      <c r="K17" s="21">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B18" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="C18" s="21">
+        <v>1</v>
+      </c>
+      <c r="G18" s="21">
+        <v>1</v>
+      </c>
+      <c r="J18" s="21">
+        <v>1</v>
+      </c>
+      <c r="K18" s="21">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>7</v>
+      </c>
+      <c r="N18" s="21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B19" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="C19" s="21">
+        <v>1</v>
+      </c>
+      <c r="G19" s="21">
+        <v>1</v>
+      </c>
+      <c r="J19" s="21">
+        <v>1</v>
+      </c>
+      <c r="K19" s="21">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>7</v>
+      </c>
+      <c r="N19" s="21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B20" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="C20" s="21">
+        <v>1</v>
+      </c>
+      <c r="D20" s="21">
+        <v>1</v>
+      </c>
+      <c r="G20" s="21">
+        <v>1</v>
+      </c>
+      <c r="J20" s="21">
+        <v>1</v>
+      </c>
+      <c r="K20" s="21">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>13</v>
+      </c>
+      <c r="N20" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B21" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="D21" s="21">
+        <v>1</v>
+      </c>
+      <c r="G21" s="21">
+        <v>1</v>
+      </c>
+      <c r="I21" s="21">
+        <v>1</v>
+      </c>
+      <c r="J21" s="21">
+        <v>1</v>
+      </c>
+      <c r="K21" s="21">
+        <v>1</v>
+      </c>
+      <c r="M21" s="21">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B22" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="D22" s="21">
+        <v>1</v>
+      </c>
+      <c r="G22" s="21">
+        <v>1</v>
+      </c>
+      <c r="I22" s="21">
+        <v>1</v>
+      </c>
+      <c r="J22" s="21">
+        <v>1</v>
+      </c>
+      <c r="K22" s="21">
+        <v>1</v>
+      </c>
+      <c r="M22" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B23" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="D23" s="21">
+        <v>1</v>
+      </c>
+      <c r="E23" s="21">
+        <v>1</v>
+      </c>
+      <c r="G23" s="21">
+        <v>1</v>
+      </c>
+      <c r="I23" s="21">
+        <v>1</v>
+      </c>
+      <c r="J23" s="21">
+        <v>1</v>
+      </c>
+      <c r="K23" s="21">
+        <v>1</v>
+      </c>
+      <c r="M23" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B24" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="D24" s="21">
+        <v>1</v>
+      </c>
+      <c r="G24" s="21">
+        <v>1</v>
+      </c>
+      <c r="K24" s="21">
+        <v>1</v>
+      </c>
+      <c r="M24" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B25" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="D25" s="21">
+        <v>1</v>
+      </c>
+      <c r="G25" s="21">
+        <v>1</v>
+      </c>
+      <c r="I25" s="21">
+        <v>1</v>
+      </c>
+      <c r="J25" s="21">
+        <v>1</v>
+      </c>
+      <c r="K25" s="21">
+        <v>1</v>
+      </c>
+      <c r="M25" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B26" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="D26" s="21">
+        <v>1</v>
+      </c>
+      <c r="G26" s="21">
+        <v>1</v>
+      </c>
+      <c r="I26" s="21">
+        <v>1</v>
+      </c>
+      <c r="J26" s="21">
+        <v>1</v>
+      </c>
+      <c r="K26" s="21">
+        <v>1</v>
+      </c>
+      <c r="M26" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B27" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="D27" s="21">
+        <v>1</v>
+      </c>
+      <c r="G27" s="21">
+        <v>1</v>
+      </c>
+      <c r="K27" s="21">
+        <v>1</v>
+      </c>
+      <c r="M27" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B28" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="D28" s="21">
+        <v>1</v>
+      </c>
+      <c r="G28" s="21">
+        <v>1</v>
+      </c>
+      <c r="K28" s="21">
+        <v>1</v>
+      </c>
+      <c r="M28" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B29" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="D29" s="21">
+        <v>1</v>
+      </c>
+      <c r="G29" s="21">
+        <v>1</v>
+      </c>
+      <c r="K29" s="21">
+        <v>1</v>
+      </c>
+      <c r="M29" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B30" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="D30" s="21">
+        <v>1</v>
+      </c>
+      <c r="G30" s="21">
+        <v>1</v>
+      </c>
+      <c r="K30" s="21">
+        <v>1</v>
+      </c>
+      <c r="M30" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B31" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="D31" s="21">
+        <v>1</v>
+      </c>
+      <c r="G31" s="21">
+        <v>1</v>
+      </c>
+      <c r="J31" s="21">
+        <v>1</v>
+      </c>
+      <c r="K31" s="21">
+        <v>1</v>
+      </c>
+      <c r="M31" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B32" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="D32" s="21">
+        <v>1</v>
+      </c>
+      <c r="G32" s="21">
+        <v>1</v>
+      </c>
+      <c r="J32" s="21">
+        <v>1</v>
+      </c>
+      <c r="K32" s="21">
+        <v>1</v>
+      </c>
+      <c r="M32" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B33" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="D33" s="21">
+        <v>1</v>
+      </c>
+      <c r="F33" s="21">
+        <v>1</v>
+      </c>
+      <c r="G33" s="21">
+        <v>1</v>
+      </c>
+      <c r="K33" s="21">
+        <v>1</v>
+      </c>
+      <c r="M33" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B34" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="D34" s="21">
+        <v>1</v>
+      </c>
+      <c r="G34" s="21">
+        <v>1</v>
+      </c>
+      <c r="K34" s="21">
+        <v>1</v>
+      </c>
+      <c r="M34" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B35" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="D35" s="21">
+        <v>1</v>
+      </c>
+      <c r="G35" s="21">
+        <v>1</v>
+      </c>
+      <c r="K35" s="21">
+        <v>1</v>
+      </c>
+      <c r="M35" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B36" s="21" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17">
+        <v>1</v>
+      </c>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17">
+        <v>1</v>
+      </c>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="21">
+        <v>1</v>
+      </c>
+      <c r="M36" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B37" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17">
+        <v>1</v>
+      </c>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17">
+        <v>1</v>
+      </c>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="21">
+        <v>1</v>
+      </c>
+      <c r="M37" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B38" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17">
+        <v>1</v>
+      </c>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17">
+        <v>1</v>
+      </c>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="21">
+        <v>1</v>
+      </c>
+      <c r="M38" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B39" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17">
+        <v>1</v>
+      </c>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17">
+        <v>1</v>
+      </c>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="21">
+        <v>1</v>
+      </c>
+      <c r="M39" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B40" s="21" t="s">
         <v>162</v>
+      </c>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17">
+        <v>1</v>
+      </c>
+      <c r="F40" s="17">
+        <v>1</v>
+      </c>
+      <c r="G40" s="17">
+        <v>1</v>
+      </c>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="21">
+        <v>1</v>
+      </c>
+      <c r="M40" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B41" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17">
+        <v>1</v>
+      </c>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17">
+        <v>1</v>
+      </c>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17">
+        <v>1</v>
+      </c>
+      <c r="K41" s="21">
+        <v>1</v>
+      </c>
+      <c r="M41" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B42" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17">
+        <v>1</v>
+      </c>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17">
+        <v>1</v>
+      </c>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17">
+        <v>1</v>
+      </c>
+      <c r="K42" s="21">
+        <v>1</v>
+      </c>
+      <c r="M42" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B43" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17">
+        <v>1</v>
+      </c>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17">
+        <v>1</v>
+      </c>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17">
+        <v>1</v>
+      </c>
+      <c r="K43" s="21">
+        <v>1</v>
+      </c>
+      <c r="M43" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B44" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17">
+        <v>1</v>
+      </c>
+      <c r="G44" s="17">
+        <v>1</v>
+      </c>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="21">
+        <v>1</v>
+      </c>
+      <c r="M44" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B45" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17">
+        <v>1</v>
+      </c>
+      <c r="G45" s="17">
+        <v>1</v>
+      </c>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17">
+        <v>1</v>
+      </c>
+      <c r="K45" s="21">
+        <v>1</v>
+      </c>
+      <c r="M45" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B46" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17">
+        <v>1</v>
+      </c>
+      <c r="G46" s="17">
+        <v>1</v>
+      </c>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17">
+        <v>1</v>
+      </c>
+      <c r="K46" s="21">
+        <v>1</v>
+      </c>
+      <c r="M46" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B47" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17">
+        <v>1</v>
+      </c>
+      <c r="G47" s="17">
+        <v>1</v>
+      </c>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17">
+        <v>1</v>
+      </c>
+      <c r="K47" s="21">
+        <v>1</v>
+      </c>
+      <c r="M47" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B48" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="C48" s="17">
+        <v>1</v>
+      </c>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17">
+        <v>1</v>
+      </c>
+      <c r="H48" s="17">
+        <v>1</v>
+      </c>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
+      <c r="L48" s="21">
+        <v>1</v>
+      </c>
+      <c r="M48" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B49" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="C49" s="17">
+        <v>1</v>
+      </c>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17">
+        <v>1</v>
+      </c>
+      <c r="H49" s="17">
+        <v>1</v>
+      </c>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
+      <c r="L49" s="21">
+        <v>1</v>
+      </c>
+      <c r="M49" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B50" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="C50" s="17">
+        <v>1</v>
+      </c>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17">
+        <v>1</v>
+      </c>
+      <c r="H50" s="17">
+        <v>1</v>
+      </c>
+      <c r="I50" s="17"/>
+      <c r="J50" s="17"/>
+      <c r="L50" s="21">
+        <v>1</v>
+      </c>
+      <c r="M50" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B51" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="C51" s="17">
+        <v>1</v>
+      </c>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17">
+        <v>1</v>
+      </c>
+      <c r="H51" s="17">
+        <v>1</v>
+      </c>
+      <c r="I51" s="17"/>
+      <c r="J51" s="17"/>
+      <c r="L51" s="21">
+        <v>1</v>
+      </c>
+      <c r="M51" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B52" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="C52" s="17">
+        <v>1</v>
+      </c>
+      <c r="D52" s="17">
+        <v>1</v>
+      </c>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17">
+        <v>1</v>
+      </c>
+      <c r="H52" s="17"/>
+      <c r="I52" s="17"/>
+      <c r="J52" s="17">
+        <v>1</v>
+      </c>
+      <c r="L52" s="21">
+        <v>1</v>
+      </c>
+      <c r="M52" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B53" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="C53" s="17">
+        <v>1</v>
+      </c>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17">
+        <v>1</v>
+      </c>
+      <c r="H53" s="17"/>
+      <c r="I53" s="17"/>
+      <c r="J53" s="17">
+        <v>1</v>
+      </c>
+      <c r="L53" s="21">
+        <v>1</v>
+      </c>
+      <c r="M53" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B54" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17">
+        <v>1</v>
+      </c>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17">
+        <v>1</v>
+      </c>
+      <c r="H54" s="17">
+        <v>1</v>
+      </c>
+      <c r="I54" s="17"/>
+      <c r="J54" s="17">
+        <v>1</v>
+      </c>
+      <c r="L54" s="21">
+        <v>1</v>
+      </c>
+      <c r="M54" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B55" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17">
+        <v>1</v>
+      </c>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17">
+        <v>1</v>
+      </c>
+      <c r="H55" s="17">
+        <v>1</v>
+      </c>
+      <c r="I55" s="17"/>
+      <c r="J55" s="17">
+        <v>1</v>
+      </c>
+      <c r="L55" s="21">
+        <v>1</v>
+      </c>
+      <c r="M55" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B56" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17">
+        <v>1</v>
+      </c>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17">
+        <v>1</v>
+      </c>
+      <c r="H56" s="17"/>
+      <c r="I56" s="17"/>
+      <c r="J56" s="17">
+        <v>1</v>
+      </c>
+      <c r="L56" s="21">
+        <v>1</v>
+      </c>
+      <c r="M56" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B57" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17">
+        <v>1</v>
+      </c>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17">
+        <v>1</v>
+      </c>
+      <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="17">
+        <v>1</v>
+      </c>
+      <c r="L57" s="21">
+        <v>1</v>
+      </c>
+      <c r="M57" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B58" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17">
+        <v>1</v>
+      </c>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17">
+        <v>1</v>
+      </c>
+      <c r="H58" s="17">
+        <v>1</v>
+      </c>
+      <c r="I58" s="17"/>
+      <c r="J58" s="17">
+        <v>1</v>
+      </c>
+      <c r="L58" s="21">
+        <v>1</v>
+      </c>
+      <c r="M58" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B59" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17">
+        <v>1</v>
+      </c>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17">
+        <v>1</v>
+      </c>
+      <c r="H59" s="17">
+        <v>1</v>
+      </c>
+      <c r="I59" s="17"/>
+      <c r="J59" s="17">
+        <v>1</v>
+      </c>
+      <c r="L59" s="21">
+        <v>1</v>
+      </c>
+      <c r="M59" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B60" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17">
+        <v>1</v>
+      </c>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="17">
+        <v>1</v>
+      </c>
+      <c r="H60" s="17"/>
+      <c r="I60" s="17">
+        <v>1</v>
+      </c>
+      <c r="J60" s="17">
+        <v>1</v>
+      </c>
+      <c r="L60" s="21">
+        <v>1</v>
+      </c>
+      <c r="M60" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B61" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17">
+        <v>1</v>
+      </c>
+      <c r="E61" s="17">
+        <v>1</v>
+      </c>
+      <c r="F61" s="17"/>
+      <c r="G61" s="17">
+        <v>1</v>
+      </c>
+      <c r="H61" s="17">
+        <v>1</v>
+      </c>
+      <c r="I61" s="17"/>
+      <c r="J61" s="17">
+        <v>1</v>
+      </c>
+      <c r="L61" s="21">
+        <v>1</v>
+      </c>
+      <c r="M61" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B62" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17">
+        <v>1</v>
+      </c>
+      <c r="E62" s="17">
+        <v>1</v>
+      </c>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17">
+        <v>1</v>
+      </c>
+      <c r="H62" s="17">
+        <v>1</v>
+      </c>
+      <c r="I62" s="17"/>
+      <c r="J62" s="17">
+        <v>1</v>
+      </c>
+      <c r="L62" s="21">
+        <v>1</v>
+      </c>
+      <c r="M62" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B63" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17">
+        <v>1</v>
+      </c>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17">
+        <v>1</v>
+      </c>
+      <c r="H63" s="17">
+        <v>1</v>
+      </c>
+      <c r="I63" s="17"/>
+      <c r="J63" s="17">
+        <v>1</v>
+      </c>
+      <c r="L63" s="21">
+        <v>1</v>
+      </c>
+      <c r="M63" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B64" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17">
+        <v>1</v>
+      </c>
+      <c r="E64" s="17"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17">
+        <v>1</v>
+      </c>
+      <c r="H64" s="17">
+        <v>1</v>
+      </c>
+      <c r="I64" s="17"/>
+      <c r="J64" s="17">
+        <v>1</v>
+      </c>
+      <c r="L64" s="21">
+        <v>1</v>
+      </c>
+      <c r="M64" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B65" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17">
+        <v>1</v>
+      </c>
+      <c r="E65" s="17"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="17">
+        <v>1</v>
+      </c>
+      <c r="H65" s="17">
+        <v>1</v>
+      </c>
+      <c r="I65" s="17"/>
+      <c r="J65" s="17">
+        <v>1</v>
+      </c>
+      <c r="L65" s="21">
+        <v>1</v>
+      </c>
+      <c r="M65" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B66" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17">
+        <v>1</v>
+      </c>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17">
+        <v>1</v>
+      </c>
+      <c r="H66" s="17">
+        <v>1</v>
+      </c>
+      <c r="I66" s="17"/>
+      <c r="J66" s="17">
+        <v>1</v>
+      </c>
+      <c r="L66" s="21">
+        <v>1</v>
+      </c>
+      <c r="M66" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B67" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="C67" s="17"/>
+      <c r="D67" s="17">
+        <v>1</v>
+      </c>
+      <c r="E67" s="17"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="17">
+        <v>1</v>
+      </c>
+      <c r="H67" s="17">
+        <v>1</v>
+      </c>
+      <c r="I67" s="17"/>
+      <c r="J67" s="17">
+        <v>1</v>
+      </c>
+      <c r="L67" s="21">
+        <v>1</v>
+      </c>
+      <c r="M67" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B68" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="C68" s="17"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17">
+        <v>1</v>
+      </c>
+      <c r="F68" s="17"/>
+      <c r="G68" s="17">
+        <v>1</v>
+      </c>
+      <c r="H68" s="17">
+        <v>1</v>
+      </c>
+      <c r="I68" s="17"/>
+      <c r="J68" s="17">
+        <v>1</v>
+      </c>
+      <c r="L68" s="21">
+        <v>1</v>
+      </c>
+      <c r="M68" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B69" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="C69" s="17"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17">
+        <v>1</v>
+      </c>
+      <c r="F69" s="17"/>
+      <c r="G69" s="17">
+        <v>1</v>
+      </c>
+      <c r="H69" s="17">
+        <v>1</v>
+      </c>
+      <c r="I69" s="17"/>
+      <c r="J69" s="17">
+        <v>1</v>
+      </c>
+      <c r="L69" s="21">
+        <v>1</v>
+      </c>
+      <c r="M69" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B70" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="C70" s="17"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17">
+        <v>1</v>
+      </c>
+      <c r="F70" s="17"/>
+      <c r="G70" s="17">
+        <v>1</v>
+      </c>
+      <c r="H70" s="17">
+        <v>1</v>
+      </c>
+      <c r="I70" s="17"/>
+      <c r="J70" s="17">
+        <v>1</v>
+      </c>
+      <c r="L70" s="21">
+        <v>1</v>
+      </c>
+      <c r="M70" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B71" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="C71" s="17"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="17">
+        <v>1</v>
+      </c>
+      <c r="F71" s="17"/>
+      <c r="G71" s="17">
+        <v>1</v>
+      </c>
+      <c r="H71" s="17">
+        <v>1</v>
+      </c>
+      <c r="I71" s="17"/>
+      <c r="J71" s="17">
+        <v>1</v>
+      </c>
+      <c r="L71" s="21">
+        <v>1</v>
+      </c>
+      <c r="M71" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B72" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="C72" s="17"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17">
+        <v>1</v>
+      </c>
+      <c r="F72" s="17"/>
+      <c r="G72" s="17">
+        <v>1</v>
+      </c>
+      <c r="H72" s="17">
+        <v>1</v>
+      </c>
+      <c r="I72" s="17"/>
+      <c r="J72" s="17">
+        <v>1</v>
+      </c>
+      <c r="L72" s="21">
+        <v>1</v>
+      </c>
+      <c r="M72" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B73" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17">
+        <v>1</v>
+      </c>
+      <c r="F73" s="17"/>
+      <c r="G73" s="17">
+        <v>1</v>
+      </c>
+      <c r="H73" s="17">
+        <v>1</v>
+      </c>
+      <c r="I73" s="17"/>
+      <c r="J73" s="17">
+        <v>1</v>
+      </c>
+      <c r="L73" s="21">
+        <v>1</v>
+      </c>
+      <c r="M73" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B74" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="C74" s="17"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17">
+        <v>1</v>
+      </c>
+      <c r="F74" s="17"/>
+      <c r="G74" s="17">
+        <v>1</v>
+      </c>
+      <c r="H74" s="17">
+        <v>1</v>
+      </c>
+      <c r="I74" s="17"/>
+      <c r="J74" s="17">
+        <v>1</v>
+      </c>
+      <c r="L74" s="21">
+        <v>1</v>
+      </c>
+      <c r="M74" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B75" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="C75" s="17"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17">
+        <v>1</v>
+      </c>
+      <c r="F75" s="17"/>
+      <c r="G75" s="17">
+        <v>1</v>
+      </c>
+      <c r="H75" s="17">
+        <v>1</v>
+      </c>
+      <c r="I75" s="17"/>
+      <c r="J75" s="17">
+        <v>1</v>
+      </c>
+      <c r="L75" s="21">
+        <v>1</v>
+      </c>
+      <c r="M75" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B76" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="C76" s="17"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17">
+        <v>1</v>
+      </c>
+      <c r="F76" s="17"/>
+      <c r="G76" s="17">
+        <v>1</v>
+      </c>
+      <c r="H76" s="17">
+        <v>1</v>
+      </c>
+      <c r="I76" s="17"/>
+      <c r="J76" s="17">
+        <v>1</v>
+      </c>
+      <c r="L76" s="21">
+        <v>1</v>
+      </c>
+      <c r="M76" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B77" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="C77" s="17"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="17">
+        <v>1</v>
+      </c>
+      <c r="F77" s="17"/>
+      <c r="G77" s="17">
+        <v>1</v>
+      </c>
+      <c r="H77" s="17">
+        <v>1</v>
+      </c>
+      <c r="I77" s="17"/>
+      <c r="J77" s="17">
+        <v>1</v>
+      </c>
+      <c r="L77" s="21">
+        <v>1</v>
+      </c>
+      <c r="M77" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B78" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="17">
+        <v>1</v>
+      </c>
+      <c r="F78" s="17"/>
+      <c r="G78" s="17">
+        <v>1</v>
+      </c>
+      <c r="H78" s="17">
+        <v>1</v>
+      </c>
+      <c r="I78" s="17"/>
+      <c r="J78" s="17">
+        <v>1</v>
+      </c>
+      <c r="L78" s="21">
+        <v>1</v>
+      </c>
+      <c r="M78" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B79" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="C79" s="17"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="17">
+        <v>1</v>
+      </c>
+      <c r="G79" s="17">
+        <v>1</v>
+      </c>
+      <c r="H79" s="17">
+        <v>1</v>
+      </c>
+      <c r="I79" s="17"/>
+      <c r="J79" s="17">
+        <v>1</v>
+      </c>
+      <c r="L79" s="21">
+        <v>1</v>
+      </c>
+      <c r="M79" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B80" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="C80" s="17"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="17">
+        <v>1</v>
+      </c>
+      <c r="G80" s="17">
+        <v>1</v>
+      </c>
+      <c r="H80" s="17">
+        <v>1</v>
+      </c>
+      <c r="I80" s="17"/>
+      <c r="J80" s="17">
+        <v>1</v>
+      </c>
+      <c r="L80" s="21">
+        <v>1</v>
+      </c>
+      <c r="M80" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B81" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="C81" s="17"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="17">
+        <v>1</v>
+      </c>
+      <c r="G81" s="17">
+        <v>1</v>
+      </c>
+      <c r="H81" s="17">
+        <v>1</v>
+      </c>
+      <c r="I81" s="17"/>
+      <c r="J81" s="17">
+        <v>1</v>
+      </c>
+      <c r="L81" s="21">
+        <v>1</v>
+      </c>
+      <c r="M81" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B82" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="C82" s="21">
+        <v>1</v>
+      </c>
+      <c r="D82" s="21">
+        <v>1</v>
+      </c>
+      <c r="E82" s="21">
+        <v>1</v>
+      </c>
+      <c r="G82" s="21">
+        <v>1</v>
+      </c>
+      <c r="H82" s="21">
+        <v>1</v>
+      </c>
+      <c r="J82" s="21">
+        <v>1</v>
+      </c>
+      <c r="L82" s="21">
+        <v>1</v>
+      </c>
+      <c r="M82" s="21">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2366,4 +4817,400 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>251</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>264</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>261</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>257</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>250</v>
+      </c>
+      <c r="E11" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>262</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>255</v>
+      </c>
+      <c r="E12" t="s">
+        <v>253</v>
+      </c>
+      <c r="F12" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>265</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="23">
+        <v>80</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>267</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>120</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>268</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15" s="23">
+        <v>200</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>269</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16" s="23">
+        <v>300</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>270</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>400</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>272</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>271</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="52.5" customWidth="1"/>
+    <col min="3" max="3" width="29.125" customWidth="1"/>
+    <col min="5" max="5" width="24.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="C2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="25"/>
+      <c r="B3" s="26" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="25"/>
+      <c r="B4" s="26" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="25"/>
+      <c r="B5" s="26" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="25"/>
+      <c r="B6" s="26" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="25"/>
+      <c r="B9" s="26" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="25"/>
+      <c r="B10" s="26" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="18" t="s">
+        <v>286</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" ht="135" x14ac:dyDescent="0.15">
+      <c r="D20" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A8:A10"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/黑社会/黑社会.xlsx
+++ b/黑社会/黑社会.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="7" r:id="rId1"/>
@@ -14,13 +14,16 @@
     <sheet name="作物数据" sheetId="6" r:id="rId5"/>
     <sheet name="装饰物" sheetId="8" r:id="rId6"/>
     <sheet name="Sheet7" sheetId="9" r:id="rId7"/>
+    <sheet name="剧情" sheetId="10" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="11" r:id="rId9"/>
+    <sheet name="玩家属性" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="338">
   <si>
     <t>CP-5-2应急预案</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1321,12 +1324,176 @@
 地图上分布着数个资源点，玩家需要清除资源点周围的敌人，并建立防守，防止敌人的破坏。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>迫降25年后，新生代的灵能者来到了破旧飞船探险。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钩子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换主手副手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳，交互</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器/抗性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近战动能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程动能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近战能量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程能量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光罩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消，闪避，跑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1367,8 +1534,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1399,8 +1579,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1423,11 +1609,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1461,12 +1658,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1494,11 +1685,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1806,22 +2013,107 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="17"/>
+    <col min="1" max="1" width="9" style="15"/>
     <col min="2" max="2" width="51.125" style="5" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="16"/>
+    <col min="3" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:2" ht="67.5">
+      <c r="A1" s="15" t="s">
         <v>295</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>296</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>334</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>336</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>328</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="30" t="s">
+        <v>330</v>
+      </c>
+      <c r="B3" s="11">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="30" t="s">
+        <v>331</v>
+      </c>
+      <c r="B4" s="11">
+        <v>1</v>
+      </c>
+      <c r="C4" s="11">
+        <v>1</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="30" t="s">
+        <v>332</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11">
+        <v>1</v>
+      </c>
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="30" t="s">
+        <v>333</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11">
+        <v>1</v>
+      </c>
+      <c r="E6" s="11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1839,13 +2131,13 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="19.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="85.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="108" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="108" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1853,7 +2145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="364.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="364.5">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1861,7 +2153,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="40.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1869,7 +2161,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="54" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="54">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1877,7 +2169,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="84" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="84" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1885,7 +2177,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="216" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="216" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1893,7 +2185,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="67.5" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1901,7 +2193,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" ht="94.5" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1909,7 +2201,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="54" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2" ht="54">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -1917,7 +2209,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2" ht="67.5">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -1925,7 +2217,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2" ht="40.5">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -1933,7 +2225,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2" ht="40.5">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -1956,10 +2248,10 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D34" sqref="D34:D35"/>
+      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.625" style="5" customWidth="1"/>
     <col min="2" max="2" width="3.75" style="8" customWidth="1"/>
@@ -1972,11 +2264,11 @@
     <col min="10" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="26"/>
       <c r="C1" s="7" t="s">
         <v>26</v>
       </c>
@@ -1999,11 +2291,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="15">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15">
+    <row r="2" spans="1:9" ht="27">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13">
         <v>10</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -2028,11 +2320,11 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="15">
+    <row r="3" spans="1:9" ht="27">
+      <c r="A3" s="13">
         <v>11</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="13">
         <v>30</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -2057,11 +2349,11 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="15">
+    <row r="4" spans="1:9" ht="40.5">
+      <c r="A4" s="13">
         <v>31</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="13">
         <v>50</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -2086,11 +2378,11 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A5" s="15">
+    <row r="5" spans="1:9" ht="27">
+      <c r="A5" s="13">
         <v>51</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="13">
         <v>70</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -2113,11 +2405,11 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="15">
+    <row r="6" spans="1:9" ht="40.5">
+      <c r="A6" s="13">
         <v>71</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="13">
         <v>90</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -2142,11 +2434,11 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="15">
+    <row r="7" spans="1:9" ht="40.5">
+      <c r="A7" s="13">
         <v>91</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="13">
         <v>110</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -2171,11 +2463,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="15">
+    <row r="8" spans="1:9" ht="40.5">
+      <c r="A8" s="13">
         <v>111</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="13">
         <v>140</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -2200,11 +2492,11 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="54" x14ac:dyDescent="0.15">
-      <c r="A9" s="15">
+    <row r="9" spans="1:9" ht="54">
+      <c r="A9" s="13">
         <v>141</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="13">
         <v>170</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -2229,11 +2521,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="15">
+    <row r="10" spans="1:9" ht="40.5">
+      <c r="A10" s="13">
         <v>171</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="13">
         <v>200</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -2258,11 +2550,11 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="54" x14ac:dyDescent="0.15">
-      <c r="A11" s="15">
+    <row r="11" spans="1:9" ht="54">
+      <c r="A11" s="13">
         <v>201</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="13">
         <v>250</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -2287,11 +2579,11 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="54" x14ac:dyDescent="0.15">
-      <c r="A12" s="15">
+    <row r="12" spans="1:9" ht="54">
+      <c r="A12" s="13">
         <v>251</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="13">
         <v>300</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -2316,19 +2608,19 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="B13" s="5"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="B14" s="5"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9">
       <c r="B15" s="5"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9">
       <c r="B16" s="5"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:2">
       <c r="B17" s="5"/>
     </row>
   </sheetData>
@@ -2349,7 +2641,7 @@
       <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="7.625" customWidth="1"/>
     <col min="2" max="2" width="8.125" customWidth="1"/>
@@ -2364,7 +2656,7 @@
     <col min="13" max="13" width="4.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="A1" s="12" t="s">
         <v>157</v>
       </c>
@@ -2396,8 +2688,8 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:10">
+      <c r="A2" s="27" t="s">
         <v>140</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -2416,8 +2708,8 @@
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="14"/>
+    <row r="3" spans="1:10">
+      <c r="A3" s="27"/>
       <c r="B3" s="11" t="s">
         <v>111</v>
       </c>
@@ -2434,8 +2726,8 @@
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="14"/>
+    <row r="4" spans="1:10">
+      <c r="A4" s="27"/>
       <c r="B4" s="11" t="s">
         <v>115</v>
       </c>
@@ -2452,8 +2744,8 @@
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="14"/>
+    <row r="5" spans="1:10">
+      <c r="A5" s="27"/>
       <c r="B5" s="11" t="s">
         <v>113</v>
       </c>
@@ -2470,8 +2762,8 @@
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="14"/>
+    <row r="6" spans="1:10">
+      <c r="A6" s="27"/>
       <c r="B6" s="11" t="s">
         <v>114</v>
       </c>
@@ -2488,8 +2780,8 @@
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="14"/>
+    <row r="7" spans="1:10">
+      <c r="A7" s="27"/>
       <c r="B7" s="11" t="s">
         <v>122</v>
       </c>
@@ -2510,8 +2802,8 @@
       </c>
       <c r="J7" s="11"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="14" t="s">
+    <row r="8" spans="1:10">
+      <c r="A8" s="27" t="s">
         <v>117</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -2532,8 +2824,8 @@
       </c>
       <c r="J8" s="11"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="14"/>
+    <row r="9" spans="1:10">
+      <c r="A9" s="27"/>
       <c r="B9" s="11" t="s">
         <v>133</v>
       </c>
@@ -2550,8 +2842,8 @@
       </c>
       <c r="J9" s="11"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="14"/>
+    <row r="10" spans="1:10">
+      <c r="A10" s="27"/>
       <c r="B10" s="11" t="s">
         <v>149</v>
       </c>
@@ -2570,8 +2862,8 @@
       </c>
       <c r="J10" s="11"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="14" t="s">
+    <row r="11" spans="1:10">
+      <c r="A11" s="27" t="s">
         <v>125</v>
       </c>
       <c r="B11" s="11" t="s">
@@ -2590,8 +2882,8 @@
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="14"/>
+    <row r="12" spans="1:10">
+      <c r="A12" s="27"/>
       <c r="B12" s="11" t="s">
         <v>145</v>
       </c>
@@ -2606,8 +2898,8 @@
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="14"/>
+    <row r="13" spans="1:10">
+      <c r="A13" s="27"/>
       <c r="B13" s="11" t="s">
         <v>142</v>
       </c>
@@ -2622,8 +2914,8 @@
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="14"/>
+    <row r="14" spans="1:10">
+      <c r="A14" s="27"/>
       <c r="B14" s="11" t="s">
         <v>143</v>
       </c>
@@ -2638,8 +2930,8 @@
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="14"/>
+    <row r="15" spans="1:10">
+      <c r="A15" s="27"/>
       <c r="B15" s="11" t="s">
         <v>144</v>
       </c>
@@ -2654,8 +2946,8 @@
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="14"/>
+    <row r="16" spans="1:10">
+      <c r="A16" s="27"/>
       <c r="B16" s="11" t="s">
         <v>123</v>
       </c>
@@ -2672,8 +2964,8 @@
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A17" s="14"/>
+    <row r="17" spans="1:10">
+      <c r="A17" s="27"/>
       <c r="B17" s="11" t="s">
         <v>152</v>
       </c>
@@ -2690,8 +2982,8 @@
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A18" s="14" t="s">
+    <row r="18" spans="1:10">
+      <c r="A18" s="27" t="s">
         <v>116</v>
       </c>
       <c r="B18" s="11" t="s">
@@ -2708,8 +3000,8 @@
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A19" s="14"/>
+    <row r="19" spans="1:10">
+      <c r="A19" s="27"/>
       <c r="B19" s="11" t="s">
         <v>130</v>
       </c>
@@ -2724,8 +3016,8 @@
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="14"/>
+    <row r="20" spans="1:10">
+      <c r="A20" s="27"/>
       <c r="B20" s="11" t="s">
         <v>131</v>
       </c>
@@ -2742,8 +3034,8 @@
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="14"/>
+    <row r="21" spans="1:10">
+      <c r="A21" s="27"/>
       <c r="B21" s="11" t="s">
         <v>154</v>
       </c>
@@ -2760,8 +3052,8 @@
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A22" s="14"/>
+    <row r="22" spans="1:10">
+      <c r="A22" s="27"/>
       <c r="B22" s="11" t="s">
         <v>129</v>
       </c>
@@ -2776,8 +3068,8 @@
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A23" s="14" t="s">
+    <row r="23" spans="1:10">
+      <c r="A23" s="27" t="s">
         <v>132</v>
       </c>
       <c r="B23" s="11" t="s">
@@ -2794,8 +3086,8 @@
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A24" s="14"/>
+    <row r="24" spans="1:10">
+      <c r="A24" s="27"/>
       <c r="B24" s="11" t="s">
         <v>119</v>
       </c>
@@ -2810,8 +3102,8 @@
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A25" s="14"/>
+    <row r="25" spans="1:10">
+      <c r="A25" s="27"/>
       <c r="B25" s="11" t="s">
         <v>156</v>
       </c>
@@ -2826,8 +3118,8 @@
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A26" s="14"/>
+    <row r="26" spans="1:10">
+      <c r="A26" s="27"/>
       <c r="B26" s="11" t="s">
         <v>155</v>
       </c>
@@ -2842,8 +3134,8 @@
       <c r="I26" s="11"/>
       <c r="J26" s="11"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A27" s="14" t="s">
+    <row r="27" spans="1:10">
+      <c r="A27" s="27" t="s">
         <v>126</v>
       </c>
       <c r="B27" s="11" t="s">
@@ -2858,8 +3150,8 @@
       <c r="I27" s="11"/>
       <c r="J27" s="11"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A28" s="14"/>
+    <row r="28" spans="1:10">
+      <c r="A28" s="27"/>
       <c r="B28" s="11" t="s">
         <v>121</v>
       </c>
@@ -2872,8 +3164,8 @@
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A29" s="14"/>
+    <row r="29" spans="1:10">
+      <c r="A29" s="27"/>
       <c r="B29" s="11" t="s">
         <v>127</v>
       </c>
@@ -2886,8 +3178,8 @@
       <c r="I29" s="11"/>
       <c r="J29" s="11"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A30" s="14"/>
+    <row r="30" spans="1:10">
+      <c r="A30" s="27"/>
       <c r="B30" s="11" t="s">
         <v>147</v>
       </c>
@@ -2900,7 +3192,7 @@
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10">
       <c r="A31" s="9"/>
     </row>
   </sheetData>
@@ -2929,1886 +3221,1886 @@
       <selection pane="bottomRight" activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6.75" customWidth="1"/>
-    <col min="2" max="2" width="9" style="21"/>
-    <col min="3" max="6" width="3.75" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.625" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="3.75" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="5.625" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="19"/>
+    <col min="3" max="6" width="3.75" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.625" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="3.75" style="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="5.625" style="19" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.25" customWidth="1"/>
-    <col min="14" max="14" width="5.625" style="21" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="21"/>
+    <col min="14" max="14" width="5.625" style="19" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="19" t="s">
+    <row r="1" spans="1:14" s="18" customFormat="1"/>
+    <row r="6" spans="1:14" s="20" customFormat="1">
+      <c r="A6" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="I6" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="J6" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="K6" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="L6" s="19" t="s">
+      <c r="L6" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="M6" s="19" t="s">
+      <c r="M6" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="N6" s="19" t="s">
+      <c r="N6" s="17" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B7" s="21" t="s">
+    <row r="7" spans="1:14">
+      <c r="B7" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="C7" s="21">
-        <v>1</v>
-      </c>
-      <c r="D7" s="21">
-        <v>1</v>
-      </c>
-      <c r="G7" s="21">
-        <v>1</v>
-      </c>
-      <c r="K7" s="21">
+      <c r="C7" s="19">
+        <v>1</v>
+      </c>
+      <c r="D7" s="19">
+        <v>1</v>
+      </c>
+      <c r="G7" s="19">
+        <v>1</v>
+      </c>
+      <c r="K7" s="19">
         <v>1</v>
       </c>
       <c r="M7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B8" s="21" t="s">
+    <row r="8" spans="1:14">
+      <c r="B8" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="C8" s="21">
-        <v>1</v>
-      </c>
-      <c r="G8" s="21">
-        <v>1</v>
-      </c>
-      <c r="K8" s="21">
+      <c r="C8" s="19">
+        <v>1</v>
+      </c>
+      <c r="G8" s="19">
+        <v>1</v>
+      </c>
+      <c r="K8" s="19">
         <v>1</v>
       </c>
       <c r="M8">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B9" s="21" t="s">
+    <row r="9" spans="1:14">
+      <c r="B9" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="C9" s="21">
-        <v>1</v>
-      </c>
-      <c r="F9" s="21">
-        <v>1</v>
-      </c>
-      <c r="G9" s="21">
-        <v>1</v>
-      </c>
-      <c r="K9" s="21">
+      <c r="C9" s="19">
+        <v>1</v>
+      </c>
+      <c r="F9" s="19">
+        <v>1</v>
+      </c>
+      <c r="G9" s="19">
+        <v>1</v>
+      </c>
+      <c r="K9" s="19">
         <v>1</v>
       </c>
       <c r="M9">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B10" s="21" t="s">
+    <row r="10" spans="1:14">
+      <c r="B10" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="C10" s="21">
-        <v>1</v>
-      </c>
-      <c r="F10" s="21">
-        <v>1</v>
-      </c>
-      <c r="G10" s="21">
-        <v>1</v>
-      </c>
-      <c r="K10" s="21">
+      <c r="C10" s="19">
+        <v>1</v>
+      </c>
+      <c r="F10" s="19">
+        <v>1</v>
+      </c>
+      <c r="G10" s="19">
+        <v>1</v>
+      </c>
+      <c r="K10" s="19">
         <v>1</v>
       </c>
       <c r="M10">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B11" s="21" t="s">
+    <row r="11" spans="1:14">
+      <c r="B11" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="C11" s="21">
-        <v>1</v>
-      </c>
-      <c r="F11" s="21">
-        <v>1</v>
-      </c>
-      <c r="G11" s="21">
-        <v>1</v>
-      </c>
-      <c r="K11" s="21">
+      <c r="C11" s="19">
+        <v>1</v>
+      </c>
+      <c r="F11" s="19">
+        <v>1</v>
+      </c>
+      <c r="G11" s="19">
+        <v>1</v>
+      </c>
+      <c r="K11" s="19">
         <v>1</v>
       </c>
       <c r="M11">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B12" s="21" t="s">
+    <row r="12" spans="1:14">
+      <c r="B12" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="C12" s="21">
-        <v>1</v>
-      </c>
-      <c r="G12" s="21">
-        <v>1</v>
-      </c>
-      <c r="J12" s="21">
-        <v>1</v>
-      </c>
-      <c r="K12" s="21">
+      <c r="C12" s="19">
+        <v>1</v>
+      </c>
+      <c r="G12" s="19">
+        <v>1</v>
+      </c>
+      <c r="J12" s="19">
+        <v>1</v>
+      </c>
+      <c r="K12" s="19">
         <v>1</v>
       </c>
       <c r="M12">
         <v>12</v>
       </c>
-      <c r="N12" s="21">
+      <c r="N12" s="19">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B13" s="21" t="s">
+    <row r="13" spans="1:14">
+      <c r="B13" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="C13" s="21">
-        <v>1</v>
-      </c>
-      <c r="G13" s="21">
-        <v>1</v>
-      </c>
-      <c r="J13" s="21">
-        <v>1</v>
-      </c>
-      <c r="K13" s="21">
+      <c r="C13" s="19">
+        <v>1</v>
+      </c>
+      <c r="G13" s="19">
+        <v>1</v>
+      </c>
+      <c r="J13" s="19">
+        <v>1</v>
+      </c>
+      <c r="K13" s="19">
         <v>1</v>
       </c>
       <c r="M13">
         <v>5</v>
       </c>
-      <c r="N13" s="21">
+      <c r="N13" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B14" s="21" t="s">
+    <row r="14" spans="1:14">
+      <c r="B14" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="C14" s="21">
-        <v>1</v>
-      </c>
-      <c r="D14" s="21">
-        <v>1</v>
-      </c>
-      <c r="G14" s="21">
-        <v>1</v>
-      </c>
-      <c r="J14" s="21">
-        <v>1</v>
-      </c>
-      <c r="K14" s="21">
+      <c r="C14" s="19">
+        <v>1</v>
+      </c>
+      <c r="D14" s="19">
+        <v>1</v>
+      </c>
+      <c r="G14" s="19">
+        <v>1</v>
+      </c>
+      <c r="J14" s="19">
+        <v>1</v>
+      </c>
+      <c r="K14" s="19">
         <v>1</v>
       </c>
       <c r="M14">
         <v>13</v>
       </c>
-      <c r="N14" s="21">
+      <c r="N14" s="19">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B15" s="21" t="s">
+    <row r="15" spans="1:14">
+      <c r="B15" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="C15" s="21">
-        <v>1</v>
-      </c>
-      <c r="G15" s="21">
-        <v>1</v>
-      </c>
-      <c r="J15" s="21">
-        <v>1</v>
-      </c>
-      <c r="K15" s="21">
+      <c r="C15" s="19">
+        <v>1</v>
+      </c>
+      <c r="G15" s="19">
+        <v>1</v>
+      </c>
+      <c r="J15" s="19">
+        <v>1</v>
+      </c>
+      <c r="K15" s="19">
         <v>1</v>
       </c>
       <c r="M15">
         <v>10</v>
       </c>
-      <c r="N15" s="21">
+      <c r="N15" s="19">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B16" s="21" t="s">
+    <row r="16" spans="1:14">
+      <c r="B16" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="C16" s="21">
-        <v>1</v>
-      </c>
-      <c r="D16" s="21">
-        <v>1</v>
-      </c>
-      <c r="G16" s="21">
-        <v>1</v>
-      </c>
-      <c r="K16" s="21">
+      <c r="C16" s="19">
+        <v>1</v>
+      </c>
+      <c r="D16" s="19">
+        <v>1</v>
+      </c>
+      <c r="G16" s="19">
+        <v>1</v>
+      </c>
+      <c r="K16" s="19">
         <v>1</v>
       </c>
       <c r="M16">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B17" s="21" t="s">
+    <row r="17" spans="2:14">
+      <c r="B17" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="C17" s="21">
-        <v>1</v>
-      </c>
-      <c r="G17" s="21">
-        <v>1</v>
-      </c>
-      <c r="K17" s="21">
+      <c r="C17" s="19">
+        <v>1</v>
+      </c>
+      <c r="G17" s="19">
+        <v>1</v>
+      </c>
+      <c r="K17" s="19">
         <v>1</v>
       </c>
       <c r="M17">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B18" s="21" t="s">
+    <row r="18" spans="2:14">
+      <c r="B18" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="C18" s="21">
-        <v>1</v>
-      </c>
-      <c r="G18" s="21">
-        <v>1</v>
-      </c>
-      <c r="J18" s="21">
-        <v>1</v>
-      </c>
-      <c r="K18" s="21">
+      <c r="C18" s="19">
+        <v>1</v>
+      </c>
+      <c r="G18" s="19">
+        <v>1</v>
+      </c>
+      <c r="J18" s="19">
+        <v>1</v>
+      </c>
+      <c r="K18" s="19">
         <v>1</v>
       </c>
       <c r="M18">
         <v>7</v>
       </c>
-      <c r="N18" s="21">
+      <c r="N18" s="19">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B19" s="21" t="s">
+    <row r="19" spans="2:14">
+      <c r="B19" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="C19" s="21">
-        <v>1</v>
-      </c>
-      <c r="G19" s="21">
-        <v>1</v>
-      </c>
-      <c r="J19" s="21">
-        <v>1</v>
-      </c>
-      <c r="K19" s="21">
+      <c r="C19" s="19">
+        <v>1</v>
+      </c>
+      <c r="G19" s="19">
+        <v>1</v>
+      </c>
+      <c r="J19" s="19">
+        <v>1</v>
+      </c>
+      <c r="K19" s="19">
         <v>1</v>
       </c>
       <c r="M19">
         <v>7</v>
       </c>
-      <c r="N19" s="21">
+      <c r="N19" s="19">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B20" s="21" t="s">
+    <row r="20" spans="2:14">
+      <c r="B20" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="C20" s="21">
-        <v>1</v>
-      </c>
-      <c r="D20" s="21">
-        <v>1</v>
-      </c>
-      <c r="G20" s="21">
-        <v>1</v>
-      </c>
-      <c r="J20" s="21">
-        <v>1</v>
-      </c>
-      <c r="K20" s="21">
+      <c r="C20" s="19">
+        <v>1</v>
+      </c>
+      <c r="D20" s="19">
+        <v>1</v>
+      </c>
+      <c r="G20" s="19">
+        <v>1</v>
+      </c>
+      <c r="J20" s="19">
+        <v>1</v>
+      </c>
+      <c r="K20" s="19">
         <v>1</v>
       </c>
       <c r="M20">
         <v>13</v>
       </c>
-      <c r="N20" s="21">
+      <c r="N20" s="19">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B21" s="21" t="s">
+    <row r="21" spans="2:14">
+      <c r="B21" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="D21" s="21">
-        <v>1</v>
-      </c>
-      <c r="G21" s="21">
-        <v>1</v>
-      </c>
-      <c r="I21" s="21">
-        <v>1</v>
-      </c>
-      <c r="J21" s="21">
-        <v>1</v>
-      </c>
-      <c r="K21" s="21">
-        <v>1</v>
-      </c>
-      <c r="M21" s="21">
+      <c r="D21" s="19">
+        <v>1</v>
+      </c>
+      <c r="G21" s="19">
+        <v>1</v>
+      </c>
+      <c r="I21" s="19">
+        <v>1</v>
+      </c>
+      <c r="J21" s="19">
+        <v>1</v>
+      </c>
+      <c r="K21" s="19">
+        <v>1</v>
+      </c>
+      <c r="M21" s="19">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B22" s="21" t="s">
+    <row r="22" spans="2:14">
+      <c r="B22" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="D22" s="21">
-        <v>1</v>
-      </c>
-      <c r="G22" s="21">
-        <v>1</v>
-      </c>
-      <c r="I22" s="21">
-        <v>1</v>
-      </c>
-      <c r="J22" s="21">
-        <v>1</v>
-      </c>
-      <c r="K22" s="21">
-        <v>1</v>
-      </c>
-      <c r="M22" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B23" s="21" t="s">
+      <c r="D22" s="19">
+        <v>1</v>
+      </c>
+      <c r="G22" s="19">
+        <v>1</v>
+      </c>
+      <c r="I22" s="19">
+        <v>1</v>
+      </c>
+      <c r="J22" s="19">
+        <v>1</v>
+      </c>
+      <c r="K22" s="19">
+        <v>1</v>
+      </c>
+      <c r="M22" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14">
+      <c r="B23" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="D23" s="21">
-        <v>1</v>
-      </c>
-      <c r="E23" s="21">
-        <v>1</v>
-      </c>
-      <c r="G23" s="21">
-        <v>1</v>
-      </c>
-      <c r="I23" s="21">
-        <v>1</v>
-      </c>
-      <c r="J23" s="21">
-        <v>1</v>
-      </c>
-      <c r="K23" s="21">
-        <v>1</v>
-      </c>
-      <c r="M23" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B24" s="21" t="s">
+      <c r="D23" s="19">
+        <v>1</v>
+      </c>
+      <c r="E23" s="19">
+        <v>1</v>
+      </c>
+      <c r="G23" s="19">
+        <v>1</v>
+      </c>
+      <c r="I23" s="19">
+        <v>1</v>
+      </c>
+      <c r="J23" s="19">
+        <v>1</v>
+      </c>
+      <c r="K23" s="19">
+        <v>1</v>
+      </c>
+      <c r="M23" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14">
+      <c r="B24" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="D24" s="21">
-        <v>1</v>
-      </c>
-      <c r="G24" s="21">
-        <v>1</v>
-      </c>
-      <c r="K24" s="21">
-        <v>1</v>
-      </c>
-      <c r="M24" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B25" s="21" t="s">
+      <c r="D24" s="19">
+        <v>1</v>
+      </c>
+      <c r="G24" s="19">
+        <v>1</v>
+      </c>
+      <c r="K24" s="19">
+        <v>1</v>
+      </c>
+      <c r="M24" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14">
+      <c r="B25" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="D25" s="21">
-        <v>1</v>
-      </c>
-      <c r="G25" s="21">
-        <v>1</v>
-      </c>
-      <c r="I25" s="21">
-        <v>1</v>
-      </c>
-      <c r="J25" s="21">
-        <v>1</v>
-      </c>
-      <c r="K25" s="21">
-        <v>1</v>
-      </c>
-      <c r="M25" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B26" s="21" t="s">
+      <c r="D25" s="19">
+        <v>1</v>
+      </c>
+      <c r="G25" s="19">
+        <v>1</v>
+      </c>
+      <c r="I25" s="19">
+        <v>1</v>
+      </c>
+      <c r="J25" s="19">
+        <v>1</v>
+      </c>
+      <c r="K25" s="19">
+        <v>1</v>
+      </c>
+      <c r="M25" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14">
+      <c r="B26" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="D26" s="21">
-        <v>1</v>
-      </c>
-      <c r="G26" s="21">
-        <v>1</v>
-      </c>
-      <c r="I26" s="21">
-        <v>1</v>
-      </c>
-      <c r="J26" s="21">
-        <v>1</v>
-      </c>
-      <c r="K26" s="21">
-        <v>1</v>
-      </c>
-      <c r="M26" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B27" s="21" t="s">
+      <c r="D26" s="19">
+        <v>1</v>
+      </c>
+      <c r="G26" s="19">
+        <v>1</v>
+      </c>
+      <c r="I26" s="19">
+        <v>1</v>
+      </c>
+      <c r="J26" s="19">
+        <v>1</v>
+      </c>
+      <c r="K26" s="19">
+        <v>1</v>
+      </c>
+      <c r="M26" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14">
+      <c r="B27" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="D27" s="21">
-        <v>1</v>
-      </c>
-      <c r="G27" s="21">
-        <v>1</v>
-      </c>
-      <c r="K27" s="21">
-        <v>1</v>
-      </c>
-      <c r="M27" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B28" s="21" t="s">
+      <c r="D27" s="19">
+        <v>1</v>
+      </c>
+      <c r="G27" s="19">
+        <v>1</v>
+      </c>
+      <c r="K27" s="19">
+        <v>1</v>
+      </c>
+      <c r="M27" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14">
+      <c r="B28" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="D28" s="21">
-        <v>1</v>
-      </c>
-      <c r="G28" s="21">
-        <v>1</v>
-      </c>
-      <c r="K28" s="21">
-        <v>1</v>
-      </c>
-      <c r="M28" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B29" s="21" t="s">
+      <c r="D28" s="19">
+        <v>1</v>
+      </c>
+      <c r="G28" s="19">
+        <v>1</v>
+      </c>
+      <c r="K28" s="19">
+        <v>1</v>
+      </c>
+      <c r="M28" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14">
+      <c r="B29" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="D29" s="21">
-        <v>1</v>
-      </c>
-      <c r="G29" s="21">
-        <v>1</v>
-      </c>
-      <c r="K29" s="21">
-        <v>1</v>
-      </c>
-      <c r="M29" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B30" s="21" t="s">
+      <c r="D29" s="19">
+        <v>1</v>
+      </c>
+      <c r="G29" s="19">
+        <v>1</v>
+      </c>
+      <c r="K29" s="19">
+        <v>1</v>
+      </c>
+      <c r="M29" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14">
+      <c r="B30" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="D30" s="21">
-        <v>1</v>
-      </c>
-      <c r="G30" s="21">
-        <v>1</v>
-      </c>
-      <c r="K30" s="21">
-        <v>1</v>
-      </c>
-      <c r="M30" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B31" s="21" t="s">
+      <c r="D30" s="19">
+        <v>1</v>
+      </c>
+      <c r="G30" s="19">
+        <v>1</v>
+      </c>
+      <c r="K30" s="19">
+        <v>1</v>
+      </c>
+      <c r="M30" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14">
+      <c r="B31" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="D31" s="21">
-        <v>1</v>
-      </c>
-      <c r="G31" s="21">
-        <v>1</v>
-      </c>
-      <c r="J31" s="21">
-        <v>1</v>
-      </c>
-      <c r="K31" s="21">
-        <v>1</v>
-      </c>
-      <c r="M31" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B32" s="21" t="s">
+      <c r="D31" s="19">
+        <v>1</v>
+      </c>
+      <c r="G31" s="19">
+        <v>1</v>
+      </c>
+      <c r="J31" s="19">
+        <v>1</v>
+      </c>
+      <c r="K31" s="19">
+        <v>1</v>
+      </c>
+      <c r="M31" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14">
+      <c r="B32" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="D32" s="21">
-        <v>1</v>
-      </c>
-      <c r="G32" s="21">
-        <v>1</v>
-      </c>
-      <c r="J32" s="21">
-        <v>1</v>
-      </c>
-      <c r="K32" s="21">
-        <v>1</v>
-      </c>
-      <c r="M32" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B33" s="21" t="s">
+      <c r="D32" s="19">
+        <v>1</v>
+      </c>
+      <c r="G32" s="19">
+        <v>1</v>
+      </c>
+      <c r="J32" s="19">
+        <v>1</v>
+      </c>
+      <c r="K32" s="19">
+        <v>1</v>
+      </c>
+      <c r="M32" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13">
+      <c r="B33" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="D33" s="21">
-        <v>1</v>
-      </c>
-      <c r="F33" s="21">
-        <v>1</v>
-      </c>
-      <c r="G33" s="21">
-        <v>1</v>
-      </c>
-      <c r="K33" s="21">
-        <v>1</v>
-      </c>
-      <c r="M33" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B34" s="21" t="s">
+      <c r="D33" s="19">
+        <v>1</v>
+      </c>
+      <c r="F33" s="19">
+        <v>1</v>
+      </c>
+      <c r="G33" s="19">
+        <v>1</v>
+      </c>
+      <c r="K33" s="19">
+        <v>1</v>
+      </c>
+      <c r="M33" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13">
+      <c r="B34" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="D34" s="21">
-        <v>1</v>
-      </c>
-      <c r="G34" s="21">
-        <v>1</v>
-      </c>
-      <c r="K34" s="21">
-        <v>1</v>
-      </c>
-      <c r="M34" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B35" s="21" t="s">
+      <c r="D34" s="19">
+        <v>1</v>
+      </c>
+      <c r="G34" s="19">
+        <v>1</v>
+      </c>
+      <c r="K34" s="19">
+        <v>1</v>
+      </c>
+      <c r="M34" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13">
+      <c r="B35" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="D35" s="21">
-        <v>1</v>
-      </c>
-      <c r="G35" s="21">
-        <v>1</v>
-      </c>
-      <c r="K35" s="21">
-        <v>1</v>
-      </c>
-      <c r="M35" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B36" s="21" t="s">
+      <c r="D35" s="19">
+        <v>1</v>
+      </c>
+      <c r="G35" s="19">
+        <v>1</v>
+      </c>
+      <c r="K35" s="19">
+        <v>1</v>
+      </c>
+      <c r="M35" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13">
+      <c r="B36" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17">
-        <v>1</v>
-      </c>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17">
-        <v>1</v>
-      </c>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="21">
-        <v>1</v>
-      </c>
-      <c r="M36" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B37" s="21" t="s">
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15">
+        <v>1</v>
+      </c>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15">
+        <v>1</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="19">
+        <v>1</v>
+      </c>
+      <c r="M36" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13">
+      <c r="B37" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17">
-        <v>1</v>
-      </c>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17">
-        <v>1</v>
-      </c>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="21">
-        <v>1</v>
-      </c>
-      <c r="M37" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B38" s="21" t="s">
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15">
+        <v>1</v>
+      </c>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15">
+        <v>1</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="19">
+        <v>1</v>
+      </c>
+      <c r="M37" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13">
+      <c r="B38" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17">
-        <v>1</v>
-      </c>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17">
-        <v>1</v>
-      </c>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="21">
-        <v>1</v>
-      </c>
-      <c r="M38" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B39" s="21" t="s">
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15">
+        <v>1</v>
+      </c>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15">
+        <v>1</v>
+      </c>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="19">
+        <v>1</v>
+      </c>
+      <c r="M38" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13">
+      <c r="B39" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17">
-        <v>1</v>
-      </c>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17">
-        <v>1</v>
-      </c>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="21">
-        <v>1</v>
-      </c>
-      <c r="M39" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B40" s="21" t="s">
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15">
+        <v>1</v>
+      </c>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15">
+        <v>1</v>
+      </c>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="19">
+        <v>1</v>
+      </c>
+      <c r="M39" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13">
+      <c r="B40" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17">
-        <v>1</v>
-      </c>
-      <c r="F40" s="17">
-        <v>1</v>
-      </c>
-      <c r="G40" s="17">
-        <v>1</v>
-      </c>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="21">
-        <v>1</v>
-      </c>
-      <c r="M40" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B41" s="21" t="s">
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15">
+        <v>1</v>
+      </c>
+      <c r="F40" s="15">
+        <v>1</v>
+      </c>
+      <c r="G40" s="15">
+        <v>1</v>
+      </c>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="19">
+        <v>1</v>
+      </c>
+      <c r="M40" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13">
+      <c r="B41" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17">
-        <v>1</v>
-      </c>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17">
-        <v>1</v>
-      </c>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17">
-        <v>1</v>
-      </c>
-      <c r="K41" s="21">
-        <v>1</v>
-      </c>
-      <c r="M41" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B42" s="21" t="s">
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15">
+        <v>1</v>
+      </c>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15">
+        <v>1</v>
+      </c>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15">
+        <v>1</v>
+      </c>
+      <c r="K41" s="19">
+        <v>1</v>
+      </c>
+      <c r="M41" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13">
+      <c r="B42" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17">
-        <v>1</v>
-      </c>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17">
-        <v>1</v>
-      </c>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17">
-        <v>1</v>
-      </c>
-      <c r="K42" s="21">
-        <v>1</v>
-      </c>
-      <c r="M42" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B43" s="21" t="s">
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15">
+        <v>1</v>
+      </c>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15">
+        <v>1</v>
+      </c>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15">
+        <v>1</v>
+      </c>
+      <c r="K42" s="19">
+        <v>1</v>
+      </c>
+      <c r="M42" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13">
+      <c r="B43" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17">
-        <v>1</v>
-      </c>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17">
-        <v>1</v>
-      </c>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17">
-        <v>1</v>
-      </c>
-      <c r="K43" s="21">
-        <v>1</v>
-      </c>
-      <c r="M43" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B44" s="21" t="s">
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15">
+        <v>1</v>
+      </c>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15">
+        <v>1</v>
+      </c>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15">
+        <v>1</v>
+      </c>
+      <c r="K43" s="19">
+        <v>1</v>
+      </c>
+      <c r="M43" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13">
+      <c r="B44" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17">
-        <v>1</v>
-      </c>
-      <c r="G44" s="17">
-        <v>1</v>
-      </c>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="21">
-        <v>1</v>
-      </c>
-      <c r="M44" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B45" s="21" t="s">
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15">
+        <v>1</v>
+      </c>
+      <c r="G44" s="15">
+        <v>1</v>
+      </c>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="19">
+        <v>1</v>
+      </c>
+      <c r="M44" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13">
+      <c r="B45" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17">
-        <v>1</v>
-      </c>
-      <c r="G45" s="17">
-        <v>1</v>
-      </c>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17">
-        <v>1</v>
-      </c>
-      <c r="K45" s="21">
-        <v>1</v>
-      </c>
-      <c r="M45" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B46" s="21" t="s">
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15">
+        <v>1</v>
+      </c>
+      <c r="G45" s="15">
+        <v>1</v>
+      </c>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15">
+        <v>1</v>
+      </c>
+      <c r="K45" s="19">
+        <v>1</v>
+      </c>
+      <c r="M45" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13">
+      <c r="B46" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17">
-        <v>1</v>
-      </c>
-      <c r="G46" s="17">
-        <v>1</v>
-      </c>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="17">
-        <v>1</v>
-      </c>
-      <c r="K46" s="21">
-        <v>1</v>
-      </c>
-      <c r="M46" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B47" s="21" t="s">
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15">
+        <v>1</v>
+      </c>
+      <c r="G46" s="15">
+        <v>1</v>
+      </c>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15">
+        <v>1</v>
+      </c>
+      <c r="K46" s="19">
+        <v>1</v>
+      </c>
+      <c r="M46" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13">
+      <c r="B47" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17">
-        <v>1</v>
-      </c>
-      <c r="G47" s="17">
-        <v>1</v>
-      </c>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17">
-        <v>1</v>
-      </c>
-      <c r="K47" s="21">
-        <v>1</v>
-      </c>
-      <c r="M47" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B48" s="21" t="s">
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15">
+        <v>1</v>
+      </c>
+      <c r="G47" s="15">
+        <v>1</v>
+      </c>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15">
+        <v>1</v>
+      </c>
+      <c r="K47" s="19">
+        <v>1</v>
+      </c>
+      <c r="M47" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13">
+      <c r="B48" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="C48" s="17">
-        <v>1</v>
-      </c>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17">
-        <v>1</v>
-      </c>
-      <c r="H48" s="17">
-        <v>1</v>
-      </c>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
-      <c r="L48" s="21">
-        <v>1</v>
-      </c>
-      <c r="M48" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B49" s="21" t="s">
+      <c r="C48" s="15">
+        <v>1</v>
+      </c>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15">
+        <v>1</v>
+      </c>
+      <c r="H48" s="15">
+        <v>1</v>
+      </c>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="L48" s="19">
+        <v>1</v>
+      </c>
+      <c r="M48" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13">
+      <c r="B49" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="C49" s="17">
-        <v>1</v>
-      </c>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17">
-        <v>1</v>
-      </c>
-      <c r="H49" s="17">
-        <v>1</v>
-      </c>
-      <c r="I49" s="17"/>
-      <c r="J49" s="17"/>
-      <c r="L49" s="21">
-        <v>1</v>
-      </c>
-      <c r="M49" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B50" s="21" t="s">
+      <c r="C49" s="15">
+        <v>1</v>
+      </c>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15">
+        <v>1</v>
+      </c>
+      <c r="H49" s="15">
+        <v>1</v>
+      </c>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
+      <c r="L49" s="19">
+        <v>1</v>
+      </c>
+      <c r="M49" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13">
+      <c r="B50" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="C50" s="17">
-        <v>1</v>
-      </c>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17">
-        <v>1</v>
-      </c>
-      <c r="H50" s="17">
-        <v>1</v>
-      </c>
-      <c r="I50" s="17"/>
-      <c r="J50" s="17"/>
-      <c r="L50" s="21">
-        <v>1</v>
-      </c>
-      <c r="M50" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B51" s="21" t="s">
+      <c r="C50" s="15">
+        <v>1</v>
+      </c>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15">
+        <v>1</v>
+      </c>
+      <c r="H50" s="15">
+        <v>1</v>
+      </c>
+      <c r="I50" s="15"/>
+      <c r="J50" s="15"/>
+      <c r="L50" s="19">
+        <v>1</v>
+      </c>
+      <c r="M50" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13">
+      <c r="B51" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="C51" s="17">
-        <v>1</v>
-      </c>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17">
-        <v>1</v>
-      </c>
-      <c r="H51" s="17">
-        <v>1</v>
-      </c>
-      <c r="I51" s="17"/>
-      <c r="J51" s="17"/>
-      <c r="L51" s="21">
-        <v>1</v>
-      </c>
-      <c r="M51" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B52" s="21" t="s">
+      <c r="C51" s="15">
+        <v>1</v>
+      </c>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15">
+        <v>1</v>
+      </c>
+      <c r="H51" s="15">
+        <v>1</v>
+      </c>
+      <c r="I51" s="15"/>
+      <c r="J51" s="15"/>
+      <c r="L51" s="19">
+        <v>1</v>
+      </c>
+      <c r="M51" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13">
+      <c r="B52" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="C52" s="17">
-        <v>1</v>
-      </c>
-      <c r="D52" s="17">
-        <v>1</v>
-      </c>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17">
-        <v>1</v>
-      </c>
-      <c r="H52" s="17"/>
-      <c r="I52" s="17"/>
-      <c r="J52" s="17">
-        <v>1</v>
-      </c>
-      <c r="L52" s="21">
-        <v>1</v>
-      </c>
-      <c r="M52" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B53" s="21" t="s">
+      <c r="C52" s="15">
+        <v>1</v>
+      </c>
+      <c r="D52" s="15">
+        <v>1</v>
+      </c>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15">
+        <v>1</v>
+      </c>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="15">
+        <v>1</v>
+      </c>
+      <c r="L52" s="19">
+        <v>1</v>
+      </c>
+      <c r="M52" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13">
+      <c r="B53" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="C53" s="17">
-        <v>1</v>
-      </c>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17">
-        <v>1</v>
-      </c>
-      <c r="H53" s="17"/>
-      <c r="I53" s="17"/>
-      <c r="J53" s="17">
-        <v>1</v>
-      </c>
-      <c r="L53" s="21">
-        <v>1</v>
-      </c>
-      <c r="M53" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B54" s="21" t="s">
+      <c r="C53" s="15">
+        <v>1</v>
+      </c>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15">
+        <v>1</v>
+      </c>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="15">
+        <v>1</v>
+      </c>
+      <c r="L53" s="19">
+        <v>1</v>
+      </c>
+      <c r="M53" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13">
+      <c r="B54" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17">
-        <v>1</v>
-      </c>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17">
-        <v>1</v>
-      </c>
-      <c r="H54" s="17">
-        <v>1</v>
-      </c>
-      <c r="I54" s="17"/>
-      <c r="J54" s="17">
-        <v>1</v>
-      </c>
-      <c r="L54" s="21">
-        <v>1</v>
-      </c>
-      <c r="M54" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B55" s="21" t="s">
+      <c r="C54" s="15"/>
+      <c r="D54" s="15">
+        <v>1</v>
+      </c>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15">
+        <v>1</v>
+      </c>
+      <c r="H54" s="15">
+        <v>1</v>
+      </c>
+      <c r="I54" s="15"/>
+      <c r="J54" s="15">
+        <v>1</v>
+      </c>
+      <c r="L54" s="19">
+        <v>1</v>
+      </c>
+      <c r="M54" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13">
+      <c r="B55" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17">
-        <v>1</v>
-      </c>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17">
-        <v>1</v>
-      </c>
-      <c r="H55" s="17">
-        <v>1</v>
-      </c>
-      <c r="I55" s="17"/>
-      <c r="J55" s="17">
-        <v>1</v>
-      </c>
-      <c r="L55" s="21">
-        <v>1</v>
-      </c>
-      <c r="M55" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B56" s="21" t="s">
+      <c r="C55" s="15"/>
+      <c r="D55" s="15">
+        <v>1</v>
+      </c>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15">
+        <v>1</v>
+      </c>
+      <c r="H55" s="15">
+        <v>1</v>
+      </c>
+      <c r="I55" s="15"/>
+      <c r="J55" s="15">
+        <v>1</v>
+      </c>
+      <c r="L55" s="19">
+        <v>1</v>
+      </c>
+      <c r="M55" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13">
+      <c r="B56" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17">
-        <v>1</v>
-      </c>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17">
-        <v>1</v>
-      </c>
-      <c r="H56" s="17"/>
-      <c r="I56" s="17"/>
-      <c r="J56" s="17">
-        <v>1</v>
-      </c>
-      <c r="L56" s="21">
-        <v>1</v>
-      </c>
-      <c r="M56" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B57" s="21" t="s">
+      <c r="C56" s="15"/>
+      <c r="D56" s="15">
+        <v>1</v>
+      </c>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15">
+        <v>1</v>
+      </c>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="15">
+        <v>1</v>
+      </c>
+      <c r="L56" s="19">
+        <v>1</v>
+      </c>
+      <c r="M56" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13">
+      <c r="B57" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="C57" s="17"/>
-      <c r="D57" s="17">
-        <v>1</v>
-      </c>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17">
-        <v>1</v>
-      </c>
-      <c r="H57" s="17"/>
-      <c r="I57" s="17"/>
-      <c r="J57" s="17">
-        <v>1</v>
-      </c>
-      <c r="L57" s="21">
-        <v>1</v>
-      </c>
-      <c r="M57" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B58" s="21" t="s">
+      <c r="C57" s="15"/>
+      <c r="D57" s="15">
+        <v>1</v>
+      </c>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15">
+        <v>1</v>
+      </c>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="15">
+        <v>1</v>
+      </c>
+      <c r="L57" s="19">
+        <v>1</v>
+      </c>
+      <c r="M57" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13">
+      <c r="B58" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17">
-        <v>1</v>
-      </c>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17">
-        <v>1</v>
-      </c>
-      <c r="H58" s="17">
-        <v>1</v>
-      </c>
-      <c r="I58" s="17"/>
-      <c r="J58" s="17">
-        <v>1</v>
-      </c>
-      <c r="L58" s="21">
-        <v>1</v>
-      </c>
-      <c r="M58" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B59" s="21" t="s">
+      <c r="C58" s="15"/>
+      <c r="D58" s="15">
+        <v>1</v>
+      </c>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15">
+        <v>1</v>
+      </c>
+      <c r="H58" s="15">
+        <v>1</v>
+      </c>
+      <c r="I58" s="15"/>
+      <c r="J58" s="15">
+        <v>1</v>
+      </c>
+      <c r="L58" s="19">
+        <v>1</v>
+      </c>
+      <c r="M58" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13">
+      <c r="B59" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="C59" s="17"/>
-      <c r="D59" s="17">
-        <v>1</v>
-      </c>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17">
-        <v>1</v>
-      </c>
-      <c r="H59" s="17">
-        <v>1</v>
-      </c>
-      <c r="I59" s="17"/>
-      <c r="J59" s="17">
-        <v>1</v>
-      </c>
-      <c r="L59" s="21">
-        <v>1</v>
-      </c>
-      <c r="M59" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B60" s="21" t="s">
+      <c r="C59" s="15"/>
+      <c r="D59" s="15">
+        <v>1</v>
+      </c>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15">
+        <v>1</v>
+      </c>
+      <c r="H59" s="15">
+        <v>1</v>
+      </c>
+      <c r="I59" s="15"/>
+      <c r="J59" s="15">
+        <v>1</v>
+      </c>
+      <c r="L59" s="19">
+        <v>1</v>
+      </c>
+      <c r="M59" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13">
+      <c r="B60" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="C60" s="17"/>
-      <c r="D60" s="17">
-        <v>1</v>
-      </c>
-      <c r="E60" s="17"/>
-      <c r="F60" s="17"/>
-      <c r="G60" s="17">
-        <v>1</v>
-      </c>
-      <c r="H60" s="17"/>
-      <c r="I60" s="17">
-        <v>1</v>
-      </c>
-      <c r="J60" s="17">
-        <v>1</v>
-      </c>
-      <c r="L60" s="21">
-        <v>1</v>
-      </c>
-      <c r="M60" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B61" s="21" t="s">
+      <c r="C60" s="15"/>
+      <c r="D60" s="15">
+        <v>1</v>
+      </c>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15">
+        <v>1</v>
+      </c>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15">
+        <v>1</v>
+      </c>
+      <c r="J60" s="15">
+        <v>1</v>
+      </c>
+      <c r="L60" s="19">
+        <v>1</v>
+      </c>
+      <c r="M60" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13">
+      <c r="B61" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="C61" s="17"/>
-      <c r="D61" s="17">
-        <v>1</v>
-      </c>
-      <c r="E61" s="17">
-        <v>1</v>
-      </c>
-      <c r="F61" s="17"/>
-      <c r="G61" s="17">
-        <v>1</v>
-      </c>
-      <c r="H61" s="17">
-        <v>1</v>
-      </c>
-      <c r="I61" s="17"/>
-      <c r="J61" s="17">
-        <v>1</v>
-      </c>
-      <c r="L61" s="21">
-        <v>1</v>
-      </c>
-      <c r="M61" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B62" s="21" t="s">
+      <c r="C61" s="15"/>
+      <c r="D61" s="15">
+        <v>1</v>
+      </c>
+      <c r="E61" s="15">
+        <v>1</v>
+      </c>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15">
+        <v>1</v>
+      </c>
+      <c r="H61" s="15">
+        <v>1</v>
+      </c>
+      <c r="I61" s="15"/>
+      <c r="J61" s="15">
+        <v>1</v>
+      </c>
+      <c r="L61" s="19">
+        <v>1</v>
+      </c>
+      <c r="M61" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13">
+      <c r="B62" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="C62" s="17"/>
-      <c r="D62" s="17">
-        <v>1</v>
-      </c>
-      <c r="E62" s="17">
-        <v>1</v>
-      </c>
-      <c r="F62" s="17"/>
-      <c r="G62" s="17">
-        <v>1</v>
-      </c>
-      <c r="H62" s="17">
-        <v>1</v>
-      </c>
-      <c r="I62" s="17"/>
-      <c r="J62" s="17">
-        <v>1</v>
-      </c>
-      <c r="L62" s="21">
-        <v>1</v>
-      </c>
-      <c r="M62" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B63" s="21" t="s">
+      <c r="C62" s="15"/>
+      <c r="D62" s="15">
+        <v>1</v>
+      </c>
+      <c r="E62" s="15">
+        <v>1</v>
+      </c>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15">
+        <v>1</v>
+      </c>
+      <c r="H62" s="15">
+        <v>1</v>
+      </c>
+      <c r="I62" s="15"/>
+      <c r="J62" s="15">
+        <v>1</v>
+      </c>
+      <c r="L62" s="19">
+        <v>1</v>
+      </c>
+      <c r="M62" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13">
+      <c r="B63" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="C63" s="17"/>
-      <c r="D63" s="17">
-        <v>1</v>
-      </c>
-      <c r="E63" s="17"/>
-      <c r="F63" s="17"/>
-      <c r="G63" s="17">
-        <v>1</v>
-      </c>
-      <c r="H63" s="17">
-        <v>1</v>
-      </c>
-      <c r="I63" s="17"/>
-      <c r="J63" s="17">
-        <v>1</v>
-      </c>
-      <c r="L63" s="21">
-        <v>1</v>
-      </c>
-      <c r="M63" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B64" s="21" t="s">
+      <c r="C63" s="15"/>
+      <c r="D63" s="15">
+        <v>1</v>
+      </c>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15">
+        <v>1</v>
+      </c>
+      <c r="H63" s="15">
+        <v>1</v>
+      </c>
+      <c r="I63" s="15"/>
+      <c r="J63" s="15">
+        <v>1</v>
+      </c>
+      <c r="L63" s="19">
+        <v>1</v>
+      </c>
+      <c r="M63" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13">
+      <c r="B64" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="C64" s="17"/>
-      <c r="D64" s="17">
-        <v>1</v>
-      </c>
-      <c r="E64" s="17"/>
-      <c r="F64" s="17"/>
-      <c r="G64" s="17">
-        <v>1</v>
-      </c>
-      <c r="H64" s="17">
-        <v>1</v>
-      </c>
-      <c r="I64" s="17"/>
-      <c r="J64" s="17">
-        <v>1</v>
-      </c>
-      <c r="L64" s="21">
-        <v>1</v>
-      </c>
-      <c r="M64" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B65" s="21" t="s">
+      <c r="C64" s="15"/>
+      <c r="D64" s="15">
+        <v>1</v>
+      </c>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15">
+        <v>1</v>
+      </c>
+      <c r="H64" s="15">
+        <v>1</v>
+      </c>
+      <c r="I64" s="15"/>
+      <c r="J64" s="15">
+        <v>1</v>
+      </c>
+      <c r="L64" s="19">
+        <v>1</v>
+      </c>
+      <c r="M64" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13">
+      <c r="B65" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="C65" s="17"/>
-      <c r="D65" s="17">
-        <v>1</v>
-      </c>
-      <c r="E65" s="17"/>
-      <c r="F65" s="17"/>
-      <c r="G65" s="17">
-        <v>1</v>
-      </c>
-      <c r="H65" s="17">
-        <v>1</v>
-      </c>
-      <c r="I65" s="17"/>
-      <c r="J65" s="17">
-        <v>1</v>
-      </c>
-      <c r="L65" s="21">
-        <v>1</v>
-      </c>
-      <c r="M65" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B66" s="21" t="s">
+      <c r="C65" s="15"/>
+      <c r="D65" s="15">
+        <v>1</v>
+      </c>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15">
+        <v>1</v>
+      </c>
+      <c r="H65" s="15">
+        <v>1</v>
+      </c>
+      <c r="I65" s="15"/>
+      <c r="J65" s="15">
+        <v>1</v>
+      </c>
+      <c r="L65" s="19">
+        <v>1</v>
+      </c>
+      <c r="M65" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13">
+      <c r="B66" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="C66" s="17"/>
-      <c r="D66" s="17">
-        <v>1</v>
-      </c>
-      <c r="E66" s="17"/>
-      <c r="F66" s="17"/>
-      <c r="G66" s="17">
-        <v>1</v>
-      </c>
-      <c r="H66" s="17">
-        <v>1</v>
-      </c>
-      <c r="I66" s="17"/>
-      <c r="J66" s="17">
-        <v>1</v>
-      </c>
-      <c r="L66" s="21">
-        <v>1</v>
-      </c>
-      <c r="M66" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B67" s="21" t="s">
+      <c r="C66" s="15"/>
+      <c r="D66" s="15">
+        <v>1</v>
+      </c>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15">
+        <v>1</v>
+      </c>
+      <c r="H66" s="15">
+        <v>1</v>
+      </c>
+      <c r="I66" s="15"/>
+      <c r="J66" s="15">
+        <v>1</v>
+      </c>
+      <c r="L66" s="19">
+        <v>1</v>
+      </c>
+      <c r="M66" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13">
+      <c r="B67" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="C67" s="17"/>
-      <c r="D67" s="17">
-        <v>1</v>
-      </c>
-      <c r="E67" s="17"/>
-      <c r="F67" s="17"/>
-      <c r="G67" s="17">
-        <v>1</v>
-      </c>
-      <c r="H67" s="17">
-        <v>1</v>
-      </c>
-      <c r="I67" s="17"/>
-      <c r="J67" s="17">
-        <v>1</v>
-      </c>
-      <c r="L67" s="21">
-        <v>1</v>
-      </c>
-      <c r="M67" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B68" s="21" t="s">
+      <c r="C67" s="15"/>
+      <c r="D67" s="15">
+        <v>1</v>
+      </c>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15">
+        <v>1</v>
+      </c>
+      <c r="H67" s="15">
+        <v>1</v>
+      </c>
+      <c r="I67" s="15"/>
+      <c r="J67" s="15">
+        <v>1</v>
+      </c>
+      <c r="L67" s="19">
+        <v>1</v>
+      </c>
+      <c r="M67" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="2:13">
+      <c r="B68" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="C68" s="17"/>
-      <c r="D68" s="17"/>
-      <c r="E68" s="17">
-        <v>1</v>
-      </c>
-      <c r="F68" s="17"/>
-      <c r="G68" s="17">
-        <v>1</v>
-      </c>
-      <c r="H68" s="17">
-        <v>1</v>
-      </c>
-      <c r="I68" s="17"/>
-      <c r="J68" s="17">
-        <v>1</v>
-      </c>
-      <c r="L68" s="21">
-        <v>1</v>
-      </c>
-      <c r="M68" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B69" s="21" t="s">
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15">
+        <v>1</v>
+      </c>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15">
+        <v>1</v>
+      </c>
+      <c r="H68" s="15">
+        <v>1</v>
+      </c>
+      <c r="I68" s="15"/>
+      <c r="J68" s="15">
+        <v>1</v>
+      </c>
+      <c r="L68" s="19">
+        <v>1</v>
+      </c>
+      <c r="M68" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13">
+      <c r="B69" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="C69" s="17"/>
-      <c r="D69" s="17"/>
-      <c r="E69" s="17">
-        <v>1</v>
-      </c>
-      <c r="F69" s="17"/>
-      <c r="G69" s="17">
-        <v>1</v>
-      </c>
-      <c r="H69" s="17">
-        <v>1</v>
-      </c>
-      <c r="I69" s="17"/>
-      <c r="J69" s="17">
-        <v>1</v>
-      </c>
-      <c r="L69" s="21">
-        <v>1</v>
-      </c>
-      <c r="M69" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B70" s="21" t="s">
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15">
+        <v>1</v>
+      </c>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15">
+        <v>1</v>
+      </c>
+      <c r="H69" s="15">
+        <v>1</v>
+      </c>
+      <c r="I69" s="15"/>
+      <c r="J69" s="15">
+        <v>1</v>
+      </c>
+      <c r="L69" s="19">
+        <v>1</v>
+      </c>
+      <c r="M69" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13">
+      <c r="B70" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="C70" s="17"/>
-      <c r="D70" s="17"/>
-      <c r="E70" s="17">
-        <v>1</v>
-      </c>
-      <c r="F70" s="17"/>
-      <c r="G70" s="17">
-        <v>1</v>
-      </c>
-      <c r="H70" s="17">
-        <v>1</v>
-      </c>
-      <c r="I70" s="17"/>
-      <c r="J70" s="17">
-        <v>1</v>
-      </c>
-      <c r="L70" s="21">
-        <v>1</v>
-      </c>
-      <c r="M70" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B71" s="21" t="s">
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15">
+        <v>1</v>
+      </c>
+      <c r="F70" s="15"/>
+      <c r="G70" s="15">
+        <v>1</v>
+      </c>
+      <c r="H70" s="15">
+        <v>1</v>
+      </c>
+      <c r="I70" s="15"/>
+      <c r="J70" s="15">
+        <v>1</v>
+      </c>
+      <c r="L70" s="19">
+        <v>1</v>
+      </c>
+      <c r="M70" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13">
+      <c r="B71" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="C71" s="17"/>
-      <c r="D71" s="17"/>
-      <c r="E71" s="17">
-        <v>1</v>
-      </c>
-      <c r="F71" s="17"/>
-      <c r="G71" s="17">
-        <v>1</v>
-      </c>
-      <c r="H71" s="17">
-        <v>1</v>
-      </c>
-      <c r="I71" s="17"/>
-      <c r="J71" s="17">
-        <v>1</v>
-      </c>
-      <c r="L71" s="21">
-        <v>1</v>
-      </c>
-      <c r="M71" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B72" s="21" t="s">
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15">
+        <v>1</v>
+      </c>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15">
+        <v>1</v>
+      </c>
+      <c r="H71" s="15">
+        <v>1</v>
+      </c>
+      <c r="I71" s="15"/>
+      <c r="J71" s="15">
+        <v>1</v>
+      </c>
+      <c r="L71" s="19">
+        <v>1</v>
+      </c>
+      <c r="M71" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13">
+      <c r="B72" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="C72" s="17"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="17">
-        <v>1</v>
-      </c>
-      <c r="F72" s="17"/>
-      <c r="G72" s="17">
-        <v>1</v>
-      </c>
-      <c r="H72" s="17">
-        <v>1</v>
-      </c>
-      <c r="I72" s="17"/>
-      <c r="J72" s="17">
-        <v>1</v>
-      </c>
-      <c r="L72" s="21">
-        <v>1</v>
-      </c>
-      <c r="M72" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B73" s="21" t="s">
+      <c r="C72" s="15"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15">
+        <v>1</v>
+      </c>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15">
+        <v>1</v>
+      </c>
+      <c r="H72" s="15">
+        <v>1</v>
+      </c>
+      <c r="I72" s="15"/>
+      <c r="J72" s="15">
+        <v>1</v>
+      </c>
+      <c r="L72" s="19">
+        <v>1</v>
+      </c>
+      <c r="M72" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13">
+      <c r="B73" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="C73" s="17"/>
-      <c r="D73" s="17"/>
-      <c r="E73" s="17">
-        <v>1</v>
-      </c>
-      <c r="F73" s="17"/>
-      <c r="G73" s="17">
-        <v>1</v>
-      </c>
-      <c r="H73" s="17">
-        <v>1</v>
-      </c>
-      <c r="I73" s="17"/>
-      <c r="J73" s="17">
-        <v>1</v>
-      </c>
-      <c r="L73" s="21">
-        <v>1</v>
-      </c>
-      <c r="M73" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B74" s="21" t="s">
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="15">
+        <v>1</v>
+      </c>
+      <c r="F73" s="15"/>
+      <c r="G73" s="15">
+        <v>1</v>
+      </c>
+      <c r="H73" s="15">
+        <v>1</v>
+      </c>
+      <c r="I73" s="15"/>
+      <c r="J73" s="15">
+        <v>1</v>
+      </c>
+      <c r="L73" s="19">
+        <v>1</v>
+      </c>
+      <c r="M73" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13">
+      <c r="B74" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="C74" s="17"/>
-      <c r="D74" s="17"/>
-      <c r="E74" s="17">
-        <v>1</v>
-      </c>
-      <c r="F74" s="17"/>
-      <c r="G74" s="17">
-        <v>1</v>
-      </c>
-      <c r="H74" s="17">
-        <v>1</v>
-      </c>
-      <c r="I74" s="17"/>
-      <c r="J74" s="17">
-        <v>1</v>
-      </c>
-      <c r="L74" s="21">
-        <v>1</v>
-      </c>
-      <c r="M74" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B75" s="21" t="s">
+      <c r="C74" s="15"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="15">
+        <v>1</v>
+      </c>
+      <c r="F74" s="15"/>
+      <c r="G74" s="15">
+        <v>1</v>
+      </c>
+      <c r="H74" s="15">
+        <v>1</v>
+      </c>
+      <c r="I74" s="15"/>
+      <c r="J74" s="15">
+        <v>1</v>
+      </c>
+      <c r="L74" s="19">
+        <v>1</v>
+      </c>
+      <c r="M74" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13">
+      <c r="B75" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="C75" s="17"/>
-      <c r="D75" s="17"/>
-      <c r="E75" s="17">
-        <v>1</v>
-      </c>
-      <c r="F75" s="17"/>
-      <c r="G75" s="17">
-        <v>1</v>
-      </c>
-      <c r="H75" s="17">
-        <v>1</v>
-      </c>
-      <c r="I75" s="17"/>
-      <c r="J75" s="17">
-        <v>1</v>
-      </c>
-      <c r="L75" s="21">
-        <v>1</v>
-      </c>
-      <c r="M75" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B76" s="21" t="s">
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="15">
+        <v>1</v>
+      </c>
+      <c r="F75" s="15"/>
+      <c r="G75" s="15">
+        <v>1</v>
+      </c>
+      <c r="H75" s="15">
+        <v>1</v>
+      </c>
+      <c r="I75" s="15"/>
+      <c r="J75" s="15">
+        <v>1</v>
+      </c>
+      <c r="L75" s="19">
+        <v>1</v>
+      </c>
+      <c r="M75" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13">
+      <c r="B76" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="C76" s="17"/>
-      <c r="D76" s="17"/>
-      <c r="E76" s="17">
-        <v>1</v>
-      </c>
-      <c r="F76" s="17"/>
-      <c r="G76" s="17">
-        <v>1</v>
-      </c>
-      <c r="H76" s="17">
-        <v>1</v>
-      </c>
-      <c r="I76" s="17"/>
-      <c r="J76" s="17">
-        <v>1</v>
-      </c>
-      <c r="L76" s="21">
-        <v>1</v>
-      </c>
-      <c r="M76" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B77" s="21" t="s">
+      <c r="C76" s="15"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="15">
+        <v>1</v>
+      </c>
+      <c r="F76" s="15"/>
+      <c r="G76" s="15">
+        <v>1</v>
+      </c>
+      <c r="H76" s="15">
+        <v>1</v>
+      </c>
+      <c r="I76" s="15"/>
+      <c r="J76" s="15">
+        <v>1</v>
+      </c>
+      <c r="L76" s="19">
+        <v>1</v>
+      </c>
+      <c r="M76" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13">
+      <c r="B77" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="C77" s="17"/>
-      <c r="D77" s="17"/>
-      <c r="E77" s="17">
-        <v>1</v>
-      </c>
-      <c r="F77" s="17"/>
-      <c r="G77" s="17">
-        <v>1</v>
-      </c>
-      <c r="H77" s="17">
-        <v>1</v>
-      </c>
-      <c r="I77" s="17"/>
-      <c r="J77" s="17">
-        <v>1</v>
-      </c>
-      <c r="L77" s="21">
-        <v>1</v>
-      </c>
-      <c r="M77" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B78" s="21" t="s">
+      <c r="C77" s="15"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="15">
+        <v>1</v>
+      </c>
+      <c r="F77" s="15"/>
+      <c r="G77" s="15">
+        <v>1</v>
+      </c>
+      <c r="H77" s="15">
+        <v>1</v>
+      </c>
+      <c r="I77" s="15"/>
+      <c r="J77" s="15">
+        <v>1</v>
+      </c>
+      <c r="L77" s="19">
+        <v>1</v>
+      </c>
+      <c r="M77" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="2:13">
+      <c r="B78" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="C78" s="17"/>
-      <c r="D78" s="17"/>
-      <c r="E78" s="17">
-        <v>1</v>
-      </c>
-      <c r="F78" s="17"/>
-      <c r="G78" s="17">
-        <v>1</v>
-      </c>
-      <c r="H78" s="17">
-        <v>1</v>
-      </c>
-      <c r="I78" s="17"/>
-      <c r="J78" s="17">
-        <v>1</v>
-      </c>
-      <c r="L78" s="21">
-        <v>1</v>
-      </c>
-      <c r="M78" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B79" s="21" t="s">
+      <c r="C78" s="15"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15">
+        <v>1</v>
+      </c>
+      <c r="F78" s="15"/>
+      <c r="G78" s="15">
+        <v>1</v>
+      </c>
+      <c r="H78" s="15">
+        <v>1</v>
+      </c>
+      <c r="I78" s="15"/>
+      <c r="J78" s="15">
+        <v>1</v>
+      </c>
+      <c r="L78" s="19">
+        <v>1</v>
+      </c>
+      <c r="M78" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13">
+      <c r="B79" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="C79" s="17"/>
-      <c r="D79" s="17"/>
-      <c r="E79" s="17"/>
-      <c r="F79" s="17">
-        <v>1</v>
-      </c>
-      <c r="G79" s="17">
-        <v>1</v>
-      </c>
-      <c r="H79" s="17">
-        <v>1</v>
-      </c>
-      <c r="I79" s="17"/>
-      <c r="J79" s="17">
-        <v>1</v>
-      </c>
-      <c r="L79" s="21">
-        <v>1</v>
-      </c>
-      <c r="M79" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B80" s="21" t="s">
+      <c r="C79" s="15"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="15">
+        <v>1</v>
+      </c>
+      <c r="G79" s="15">
+        <v>1</v>
+      </c>
+      <c r="H79" s="15">
+        <v>1</v>
+      </c>
+      <c r="I79" s="15"/>
+      <c r="J79" s="15">
+        <v>1</v>
+      </c>
+      <c r="L79" s="19">
+        <v>1</v>
+      </c>
+      <c r="M79" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="2:13">
+      <c r="B80" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="C80" s="17"/>
-      <c r="D80" s="17"/>
-      <c r="E80" s="17"/>
-      <c r="F80" s="17">
-        <v>1</v>
-      </c>
-      <c r="G80" s="17">
-        <v>1</v>
-      </c>
-      <c r="H80" s="17">
-        <v>1</v>
-      </c>
-      <c r="I80" s="17"/>
-      <c r="J80" s="17">
-        <v>1</v>
-      </c>
-      <c r="L80" s="21">
-        <v>1</v>
-      </c>
-      <c r="M80" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B81" s="21" t="s">
+      <c r="C80" s="15"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="15">
+        <v>1</v>
+      </c>
+      <c r="G80" s="15">
+        <v>1</v>
+      </c>
+      <c r="H80" s="15">
+        <v>1</v>
+      </c>
+      <c r="I80" s="15"/>
+      <c r="J80" s="15">
+        <v>1</v>
+      </c>
+      <c r="L80" s="19">
+        <v>1</v>
+      </c>
+      <c r="M80" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="2:13">
+      <c r="B81" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="C81" s="17"/>
-      <c r="D81" s="17"/>
-      <c r="E81" s="17"/>
-      <c r="F81" s="17">
-        <v>1</v>
-      </c>
-      <c r="G81" s="17">
-        <v>1</v>
-      </c>
-      <c r="H81" s="17">
-        <v>1</v>
-      </c>
-      <c r="I81" s="17"/>
-      <c r="J81" s="17">
-        <v>1</v>
-      </c>
-      <c r="L81" s="21">
-        <v>1</v>
-      </c>
-      <c r="M81" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B82" s="21" t="s">
+      <c r="C81" s="15"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="15">
+        <v>1</v>
+      </c>
+      <c r="G81" s="15">
+        <v>1</v>
+      </c>
+      <c r="H81" s="15">
+        <v>1</v>
+      </c>
+      <c r="I81" s="15"/>
+      <c r="J81" s="15">
+        <v>1</v>
+      </c>
+      <c r="L81" s="19">
+        <v>1</v>
+      </c>
+      <c r="M81" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="2:13">
+      <c r="B82" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="C82" s="21">
-        <v>1</v>
-      </c>
-      <c r="D82" s="21">
-        <v>1</v>
-      </c>
-      <c r="E82" s="21">
-        <v>1</v>
-      </c>
-      <c r="G82" s="21">
-        <v>1</v>
-      </c>
-      <c r="H82" s="21">
-        <v>1</v>
-      </c>
-      <c r="J82" s="21">
-        <v>1</v>
-      </c>
-      <c r="L82" s="21">
-        <v>1</v>
-      </c>
-      <c r="M82" s="21">
+      <c r="C82" s="19">
+        <v>1</v>
+      </c>
+      <c r="D82" s="19">
+        <v>1</v>
+      </c>
+      <c r="E82" s="19">
+        <v>1</v>
+      </c>
+      <c r="G82" s="19">
+        <v>1</v>
+      </c>
+      <c r="H82" s="19">
+        <v>1</v>
+      </c>
+      <c r="J82" s="19">
+        <v>1</v>
+      </c>
+      <c r="L82" s="19">
+        <v>1</v>
+      </c>
+      <c r="M82" s="19">
         <v>10</v>
       </c>
     </row>
@@ -4824,12 +5116,12 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>273</v>
       </c>
@@ -4840,7 +5132,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>260</v>
       </c>
@@ -4851,7 +5143,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>266</v>
       </c>
@@ -4865,7 +5157,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>258</v>
       </c>
@@ -4879,7 +5171,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>259</v>
       </c>
@@ -4893,7 +5185,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>252</v>
       </c>
@@ -4907,7 +5199,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>251</v>
       </c>
@@ -4921,7 +5213,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>263</v>
       </c>
@@ -4935,7 +5227,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>264</v>
       </c>
@@ -4949,7 +5241,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>261</v>
       </c>
@@ -4957,7 +5249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>257</v>
       </c>
@@ -4971,7 +5263,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>262</v>
       </c>
@@ -4988,7 +5280,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>265</v>
       </c>
@@ -4998,14 +5290,14 @@
       <c r="D13">
         <v>1</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="21">
         <v>80</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>267</v>
       </c>
@@ -5022,7 +5314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>268</v>
       </c>
@@ -5032,14 +5324,14 @@
       <c r="D15">
         <v>3</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="21">
         <v>200</v>
       </c>
       <c r="F15">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>269</v>
       </c>
@@ -5049,14 +5341,14 @@
       <c r="D16">
         <v>4</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="21">
         <v>300</v>
       </c>
       <c r="F16">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>270</v>
       </c>
@@ -5073,7 +5365,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>272</v>
       </c>
@@ -5081,7 +5373,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>271</v>
       </c>
@@ -5099,106 +5391,110 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="52.5" customWidth="1"/>
     <col min="3" max="3" width="29.125" customWidth="1"/>
-    <col min="5" max="5" width="24.125" customWidth="1"/>
+    <col min="5" max="5" width="39.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="22" t="s">
         <v>275</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="22" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="28" t="s">
         <v>276</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="23" t="s">
         <v>281</v>
       </c>
       <c r="C2" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" s="28"/>
+      <c r="B3" s="23" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="25"/>
-      <c r="B4" s="26" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" s="28"/>
+      <c r="B4" s="23" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="25"/>
-      <c r="B5" s="26" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" s="28"/>
+      <c r="B5" s="23" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="25"/>
-      <c r="B6" s="26" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" s="28"/>
+      <c r="B6" s="23" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="18" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="23" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="25" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" s="28" t="s">
         <v>278</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="23" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="25"/>
-      <c r="B9" s="26" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9" s="28"/>
+      <c r="B9" s="23" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="25"/>
-      <c r="B10" s="26" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10" s="28"/>
+      <c r="B10" s="23" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="18" t="s">
+    <row r="11" spans="1:3">
+      <c r="A11" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="23" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="18" t="s">
+    <row r="12" spans="1:3">
+      <c r="A12" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="23" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="20" spans="4:5" ht="135" x14ac:dyDescent="0.15">
-      <c r="D20" s="17" t="s">
+    <row r="13" spans="1:3">
+      <c r="A13" s="24"/>
+      <c r="B13" s="25"/>
+    </row>
+    <row r="20" spans="4:5" ht="94.5">
+      <c r="D20" s="15" t="s">
         <v>249</v>
       </c>
       <c r="E20" s="5" t="s">
@@ -5213,4 +5509,168 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="14"/>
+    <col min="2" max="2" width="55.625" style="14" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>297</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="8.25" customWidth="1"/>
+    <col min="3" max="3" width="8.125" customWidth="1"/>
+    <col min="5" max="5" width="7.75" customWidth="1"/>
+    <col min="6" max="6" width="6.875" customWidth="1"/>
+    <col min="7" max="7" width="7.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F1" t="s">
+        <v>301</v>
+      </c>
+      <c r="G1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="B2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C2" t="s">
+        <v>317</v>
+      </c>
+      <c r="F2" t="s">
+        <v>302</v>
+      </c>
+      <c r="G2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="B4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C4" t="s">
+        <v>324</v>
+      </c>
+      <c r="F4" t="s">
+        <v>314</v>
+      </c>
+      <c r="G4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="F7" t="s">
+        <v>305</v>
+      </c>
+      <c r="G7" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C8" t="s">
+        <v>315</v>
+      </c>
+      <c r="E8" t="s">
+        <v>304</v>
+      </c>
+      <c r="F8" t="s">
+        <v>321</v>
+      </c>
+      <c r="G8" t="s">
+        <v>307</v>
+      </c>
+      <c r="H8" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="F9" t="s">
+        <v>306</v>
+      </c>
+      <c r="G9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="B10" t="s">
+        <v>308</v>
+      </c>
+      <c r="C10" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>310</v>
+      </c>
+      <c r="B11" t="s">
+        <v>326</v>
+      </c>
+      <c r="C11" t="s">
+        <v>311</v>
+      </c>
+      <c r="D11" t="s">
+        <v>326</v>
+      </c>
+      <c r="F11" t="s">
+        <v>312</v>
+      </c>
+      <c r="G11" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12" t="s">
+        <v>309</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/黑社会/黑社会.xlsx
+++ b/黑社会/黑社会.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="6" activeTab="9"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="7" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="剧情" sheetId="10" r:id="rId8"/>
     <sheet name="Sheet2" sheetId="11" r:id="rId9"/>
     <sheet name="玩家属性" sheetId="12" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="356">
   <si>
     <t>CP-5-2应急预案</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1486,6 +1487,83 @@
   </si>
   <si>
     <t>取消，闪避，跑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生点
+环境：丛林
+设置：传送站，通讯站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丛林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入飞船
+破洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发射仓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电梯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电梯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指挥室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>军事基地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大门
+守卫室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传送站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居民区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居民区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商业区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过破洞进入飞船内部
+商业区，居民区，管道，</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1693,6 +1771,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1702,10 +1784,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2042,8 +2120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2052,24 +2130,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="26" t="s">
         <v>329</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="28" t="s">
         <v>334</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="29" t="s">
         <v>336</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="29" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="27" t="s">
         <v>330</v>
       </c>
       <c r="B3" s="11">
@@ -2080,7 +2158,7 @@
       <c r="E3" s="11"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="27" t="s">
         <v>331</v>
       </c>
       <c r="B4" s="11">
@@ -2093,7 +2171,7 @@
       <c r="E4" s="11"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="27" t="s">
         <v>332</v>
       </c>
       <c r="B5" s="11"/>
@@ -2104,7 +2182,7 @@
       <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="27" t="s">
         <v>333</v>
       </c>
       <c r="B6" s="11"/>
@@ -2114,6 +2192,139 @@
       </c>
       <c r="E6" s="11">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="I60:X66"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H61" sqref="H61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="5.625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="60" spans="9:24" ht="20.100000000000001" customHeight="1">
+      <c r="V60" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="W60" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="X60" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="61" spans="9:24" ht="20.100000000000001" customHeight="1">
+      <c r="I61" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="K61" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="L61" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="M61" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="N61" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="O61" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="P61" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q61" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="R61" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="S61" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="T61" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="U61" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="V61" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="W61" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="X61" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="62" spans="9:24" ht="20.100000000000001" customHeight="1">
+      <c r="W62" s="5" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="63" spans="9:24" ht="20.100000000000001" customHeight="1">
+      <c r="W63" s="5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="64" spans="9:24" ht="20.100000000000001" customHeight="1">
+      <c r="U64" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="V64" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="W64" s="5" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="65" spans="17:23" ht="20.100000000000001" customHeight="1">
+      <c r="U65" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="V65" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="W65" s="5" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="66" spans="17:23" ht="20.100000000000001" customHeight="1">
+      <c r="Q66" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="R66" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="S66" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="T66" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="U66" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="V66" s="5" t="s">
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -2265,10 +2476,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="26"/>
+      <c r="B1" s="30"/>
       <c r="C1" s="7" t="s">
         <v>26</v>
       </c>
@@ -2689,7 +2900,7 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="31" t="s">
         <v>140</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -2709,7 +2920,7 @@
       <c r="J2" s="11"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="27"/>
+      <c r="A3" s="31"/>
       <c r="B3" s="11" t="s">
         <v>111</v>
       </c>
@@ -2727,7 +2938,7 @@
       <c r="J3" s="11"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="27"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="11" t="s">
         <v>115</v>
       </c>
@@ -2745,7 +2956,7 @@
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="27"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="11" t="s">
         <v>113</v>
       </c>
@@ -2763,7 +2974,7 @@
       <c r="J5" s="11"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="27"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="11" t="s">
         <v>114</v>
       </c>
@@ -2781,7 +2992,7 @@
       <c r="J6" s="11"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="27"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="11" t="s">
         <v>122</v>
       </c>
@@ -2803,7 +3014,7 @@
       <c r="J7" s="11"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="31" t="s">
         <v>117</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -2825,7 +3036,7 @@
       <c r="J8" s="11"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="27"/>
+      <c r="A9" s="31"/>
       <c r="B9" s="11" t="s">
         <v>133</v>
       </c>
@@ -2843,7 +3054,7 @@
       <c r="J9" s="11"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="27"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="11" t="s">
         <v>149</v>
       </c>
@@ -2863,7 +3074,7 @@
       <c r="J10" s="11"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="31" t="s">
         <v>125</v>
       </c>
       <c r="B11" s="11" t="s">
@@ -2883,7 +3094,7 @@
       <c r="J11" s="11"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="27"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="11" t="s">
         <v>145</v>
       </c>
@@ -2899,7 +3110,7 @@
       <c r="J12" s="11"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="27"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="11" t="s">
         <v>142</v>
       </c>
@@ -2915,7 +3126,7 @@
       <c r="J13" s="11"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="27"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="11" t="s">
         <v>143</v>
       </c>
@@ -2931,7 +3142,7 @@
       <c r="J14" s="11"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="27"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="11" t="s">
         <v>144</v>
       </c>
@@ -2947,7 +3158,7 @@
       <c r="J15" s="11"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="27"/>
+      <c r="A16" s="31"/>
       <c r="B16" s="11" t="s">
         <v>123</v>
       </c>
@@ -2965,7 +3176,7 @@
       <c r="J16" s="11"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="27"/>
+      <c r="A17" s="31"/>
       <c r="B17" s="11" t="s">
         <v>152</v>
       </c>
@@ -2983,7 +3194,7 @@
       <c r="J17" s="11"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="31" t="s">
         <v>116</v>
       </c>
       <c r="B18" s="11" t="s">
@@ -3001,7 +3212,7 @@
       <c r="J18" s="11"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="27"/>
+      <c r="A19" s="31"/>
       <c r="B19" s="11" t="s">
         <v>130</v>
       </c>
@@ -3017,7 +3228,7 @@
       <c r="J19" s="11"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="27"/>
+      <c r="A20" s="31"/>
       <c r="B20" s="11" t="s">
         <v>131</v>
       </c>
@@ -3035,7 +3246,7 @@
       <c r="J20" s="11"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="27"/>
+      <c r="A21" s="31"/>
       <c r="B21" s="11" t="s">
         <v>154</v>
       </c>
@@ -3053,7 +3264,7 @@
       <c r="J21" s="11"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="27"/>
+      <c r="A22" s="31"/>
       <c r="B22" s="11" t="s">
         <v>129</v>
       </c>
@@ -3069,7 +3280,7 @@
       <c r="J22" s="11"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="31" t="s">
         <v>132</v>
       </c>
       <c r="B23" s="11" t="s">
@@ -3087,7 +3298,7 @@
       <c r="J23" s="11"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="27"/>
+      <c r="A24" s="31"/>
       <c r="B24" s="11" t="s">
         <v>119</v>
       </c>
@@ -3103,7 +3314,7 @@
       <c r="J24" s="11"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="27"/>
+      <c r="A25" s="31"/>
       <c r="B25" s="11" t="s">
         <v>156</v>
       </c>
@@ -3119,7 +3330,7 @@
       <c r="J25" s="11"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="27"/>
+      <c r="A26" s="31"/>
       <c r="B26" s="11" t="s">
         <v>155</v>
       </c>
@@ -3135,7 +3346,7 @@
       <c r="J26" s="11"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="27" t="s">
+      <c r="A27" s="31" t="s">
         <v>126</v>
       </c>
       <c r="B27" s="11" t="s">
@@ -3151,7 +3362,7 @@
       <c r="J27" s="11"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="27"/>
+      <c r="A28" s="31"/>
       <c r="B28" s="11" t="s">
         <v>121</v>
       </c>
@@ -3165,7 +3376,7 @@
       <c r="J28" s="11"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="27"/>
+      <c r="A29" s="31"/>
       <c r="B29" s="11" t="s">
         <v>127</v>
       </c>
@@ -3179,7 +3390,7 @@
       <c r="J29" s="11"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="27"/>
+      <c r="A30" s="31"/>
       <c r="B30" s="11" t="s">
         <v>147</v>
       </c>
@@ -5411,7 +5622,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="32" t="s">
         <v>276</v>
       </c>
       <c r="B2" s="23" t="s">
@@ -5422,25 +5633,25 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="28"/>
+      <c r="A3" s="32"/>
       <c r="B3" s="23" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="28"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="23" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="28"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="23" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="28"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="23" t="s">
         <v>290</v>
       </c>
@@ -5454,7 +5665,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="32" t="s">
         <v>278</v>
       </c>
       <c r="B8" s="23" t="s">
@@ -5462,13 +5673,13 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="28"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="23" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="28"/>
+      <c r="A10" s="32"/>
       <c r="B10" s="23" t="s">
         <v>291</v>
       </c>
@@ -5513,10 +5724,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5532,6 +5743,11 @@
       </c>
       <c r="B1" s="14" t="s">
         <v>297</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="27">
+      <c r="B2" s="5" t="s">
+        <v>355</v>
       </c>
     </row>
   </sheetData>

--- a/黑社会/黑社会.xlsx
+++ b/黑社会/黑社会.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="6" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-90" windowWidth="29040" windowHeight="15960" firstSheet="7" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="7" r:id="rId1"/>
@@ -13,18 +13,19 @@
     <sheet name="技能" sheetId="5" r:id="rId4"/>
     <sheet name="作物数据" sheetId="6" r:id="rId5"/>
     <sheet name="装饰物" sheetId="8" r:id="rId6"/>
-    <sheet name="Sheet7" sheetId="9" r:id="rId7"/>
+    <sheet name="工具" sheetId="9" r:id="rId7"/>
     <sheet name="剧情" sheetId="10" r:id="rId8"/>
-    <sheet name="Sheet2" sheetId="11" r:id="rId9"/>
-    <sheet name="玩家属性" sheetId="12" r:id="rId10"/>
-    <sheet name="Sheet1" sheetId="13" r:id="rId11"/>
+    <sheet name="设定" sheetId="14" r:id="rId9"/>
+    <sheet name="按键" sheetId="11" r:id="rId10"/>
+    <sheet name="玩家属性" sheetId="12" r:id="rId11"/>
+    <sheet name="武器" sheetId="15" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="403">
   <si>
     <t>CP-5-2应急预案</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1326,10 +1327,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>迫降25年后，新生代的灵能者来到了破旧飞船探险。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>背景</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1402,15 +1399,181 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>副手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器/抗性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近战动能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程动能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近战能量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程能量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消，闪避，跑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迫降25年后，新生代的灵能者来到了破旧飞船探险。在飞船废墟上空飞行时被击坠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被击坠后进入在机库的角落里醒来，机库边的整备室作为保存点。
+进入机库，这里已经被野兽和植物占领。
+经过通道进入内部。植物变为喜阴植物，出现毒虫和喜音动物作为敌人。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在轨道入口击败蜘蛛BOSS，获得勾爪，开启轨道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过轨道找到一个未被开启过的商业区，击败残存的守卫机器人，和机器人BOSS。补充物资。获得能量护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳，喷射器，交互</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方向键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WASD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳跃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>钩子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>防御</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击</t>
+    <t>space</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shift</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滚动物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换主副手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换武器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1418,152 +1581,177 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>视角</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>切换主手副手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳，交互</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>切换物品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>切换模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>护盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器/抗性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>近战动能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>远程动能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>近战能量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>远程能量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光罩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防弹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取消，闪避，跑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出生点
-环境：丛林
-设置：传送站，通讯站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丛林</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入飞船
-破洞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发射仓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>机库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电梯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电梯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指挥室</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>军事基地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通道</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大门
-守卫室</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>传送站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管道</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>居民区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>居民区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商业区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经过破洞进入飞船内部
-商业区，居民区，管道，</t>
+    <t>轻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换主副手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主手武器作为主要攻击手段，分为轻重攻击两种模式，防御时使用主武器进行防御。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副武器作为副攻击手段，常用场景为主武器近战副武器枪械，在拉开距离的情况下用副武器远程攻击。
+也可以主副武器装备动能和能量武器，交换输出应对不同情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主手轻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主手重击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻砍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通子弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊子弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通子弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单按B时闪避，闪避有无敌帧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长按B进入跑动状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳跃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喷射器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得喷射器后，长按A键会获得一个瞬间喷射的速度，后持续按住可以飞行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A键跳跃，可蹬墙跳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开商店区的另外一个通道入口，这里已经被虫群占领，又一个小型的虫巢。这里的敌人。找到一个破损的机器人残骸，修复了喷射器。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在虫巢的下方发现了一个小型的幸存者聚集地。这里只有12个人，小心翼翼的不被虫群发现，生活在这里。希望能够重新回到地面。（基地）了解到，飞船还有4个幸存者聚集地，但是被切断了路线无法来往，只是通过通讯系统确认了对方的存在，但是通讯系统已经损坏，现在也无法确定具体情况。
+临走前给了一张附近的地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续向下前进，进入居民区，清理零散的敌人，在尽头遭遇一个神秘NPC，NPC对主角进行了考验，胜利后继续前进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入生态圈，周围的数目全部死亡，水也腐化变为毒沼。生活着变异生物。BOSS是一只产生了理智的野兽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入工业区击暴走的机械敌人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到达地面，进入森林，在深林深处中了幻术，击败加特林菩萨，在峡谷中发现了一个聚集地。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动能武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AE86冲锋枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电棍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LGD光束炮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锁定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换武器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1571,7 +1759,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2091,17 +2279,17 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="15"/>
     <col min="2" max="2" width="51.125" style="5" customWidth="1"/>
     <col min="3" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="67.5">
+    <row r="1" spans="1:2" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
         <v>295</v>
       </c>
@@ -2118,80 +2306,453 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E6"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="14"/>
+    <col min="2" max="2" width="8.25" style="14" customWidth="1"/>
+    <col min="3" max="3" width="8.125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="7.75" style="14" customWidth="1"/>
+    <col min="6" max="6" width="6.875" style="14" customWidth="1"/>
+    <col min="7" max="7" width="7.5" style="14" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B1" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B2" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B4" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B6" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="E7" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B8" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B10" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B17" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B18" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B20" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B22" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="E23" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B24" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>398</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B26" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>356</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D10"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="8.875" customWidth="1"/>
+    <col min="3" max="3" width="9.75" customWidth="1"/>
+    <col min="4" max="4" width="9.625" customWidth="1"/>
+    <col min="5" max="5" width="8.875" customWidth="1"/>
+    <col min="6" max="6" width="20.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="26" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>336</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>328</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="27" t="s">
-        <v>330</v>
+        <v>385</v>
       </c>
       <c r="B3" s="11">
         <v>1</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="C3" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="27" t="s">
-        <v>331</v>
+        <v>386</v>
       </c>
       <c r="B4" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="11">
         <v>1</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="27" t="s">
-        <v>332</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11">
-        <v>1</v>
-      </c>
-      <c r="E5" s="11"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="27" t="s">
-        <v>333</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11">
-        <v>1</v>
-      </c>
-      <c r="E6" s="11">
-        <v>1</v>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="11"/>
+      <c r="B6" s="27" t="s">
+        <v>365</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>366</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="27" t="s">
+        <v>323</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="27" t="s">
+        <v>324</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="27" t="s">
+        <v>325</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="27" t="s">
+        <v>326</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -2201,130 +2762,84 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="I60:X66"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H61" sqref="H61"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="5.625" style="5"/>
+    <col min="1" max="1" width="10.875" style="14" customWidth="1"/>
+    <col min="2" max="5" width="5.625" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.25" style="14" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="60" spans="9:24" ht="20.100000000000001" customHeight="1">
-      <c r="V60" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="W60" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="X60" s="5" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="61" spans="9:24" ht="20.100000000000001" customHeight="1">
-      <c r="I61" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="J61" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="K61" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="L61" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="M61" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="N61" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="O61" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="P61" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q61" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="R61" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="S61" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="T61" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="U61" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="V61" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="W61" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="X61" s="5" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="62" spans="9:24" ht="20.100000000000001" customHeight="1">
-      <c r="W62" s="5" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="63" spans="9:24" ht="20.100000000000001" customHeight="1">
-      <c r="W63" s="5" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="64" spans="9:24" ht="20.100000000000001" customHeight="1">
-      <c r="U64" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="V64" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="W64" s="5" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="65" spans="17:23" ht="20.100000000000001" customHeight="1">
-      <c r="U65" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="V65" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="W65" s="5" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="66" spans="17:23" ht="20.100000000000001" customHeight="1">
-      <c r="Q66" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="R66" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="S66" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="T66" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="U66" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="V66" s="5" t="s">
-        <v>341</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="B2" s="14">
+        <v>1</v>
+      </c>
+      <c r="D2" s="14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="C3" s="14">
+        <v>1</v>
+      </c>
+      <c r="D3" s="14">
+        <v>70</v>
+      </c>
+      <c r="E3" s="14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="C4" s="14">
+        <v>1</v>
+      </c>
+      <c r="D4" s="14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="C5" s="14">
+        <v>1</v>
+      </c>
+      <c r="E5" s="14">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2339,16 +2854,16 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="85.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="108" customHeight="1">
+    <row r="1" spans="1:2" ht="108" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2356,7 +2871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="364.5">
+    <row r="2" spans="1:2" ht="364.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2364,7 +2879,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="40.5" customHeight="1">
+    <row r="3" spans="1:2" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2372,7 +2887,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="54">
+    <row r="4" spans="1:2" ht="54" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2380,7 +2895,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="84" customHeight="1">
+    <row r="5" spans="1:2" ht="84" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -2388,7 +2903,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="216" customHeight="1">
+    <row r="6" spans="1:2" ht="216" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -2396,7 +2911,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="67.5" customHeight="1">
+    <row r="7" spans="1:2" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -2404,7 +2919,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="94.5" customHeight="1">
+    <row r="8" spans="1:2" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -2412,7 +2927,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="54">
+    <row r="9" spans="1:2" ht="54" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -2420,7 +2935,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="67.5">
+    <row r="10" spans="1:2" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -2428,7 +2943,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="40.5">
+    <row r="11" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -2436,7 +2951,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="40.5">
+    <row r="12" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -2462,7 +2977,7 @@
       <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.625" style="5" customWidth="1"/>
     <col min="2" max="2" width="3.75" style="8" customWidth="1"/>
@@ -2475,7 +2990,7 @@
     <col min="10" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="30" t="s">
         <v>35</v>
       </c>
@@ -2502,7 +3017,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="27">
+    <row r="2" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -2531,7 +3046,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="27">
+    <row r="3" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="13">
         <v>11</v>
       </c>
@@ -2560,7 +3075,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="40.5">
+    <row r="4" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A4" s="13">
         <v>31</v>
       </c>
@@ -2589,7 +3104,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="27">
+    <row r="5" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="13">
         <v>51</v>
       </c>
@@ -2616,7 +3131,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="40.5">
+    <row r="6" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="13">
         <v>71</v>
       </c>
@@ -2645,7 +3160,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="40.5">
+    <row r="7" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A7" s="13">
         <v>91</v>
       </c>
@@ -2674,7 +3189,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="40.5">
+    <row r="8" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A8" s="13">
         <v>111</v>
       </c>
@@ -2703,7 +3218,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="54">
+    <row r="9" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A9" s="13">
         <v>141</v>
       </c>
@@ -2732,7 +3247,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="40.5">
+    <row r="10" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A10" s="13">
         <v>171</v>
       </c>
@@ -2761,7 +3276,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="54">
+    <row r="11" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A11" s="13">
         <v>201</v>
       </c>
@@ -2790,7 +3305,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="54">
+    <row r="12" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A12" s="13">
         <v>251</v>
       </c>
@@ -2819,19 +3334,19 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B13" s="5"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B14" s="5"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B15" s="5"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B16" s="5"/>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" s="5"/>
     </row>
   </sheetData>
@@ -2849,10 +3364,10 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.625" customWidth="1"/>
     <col min="2" max="2" width="8.125" customWidth="1"/>
@@ -2867,7 +3382,7 @@
     <col min="13" max="13" width="4.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>157</v>
       </c>
@@ -2899,7 +3414,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="31" t="s">
         <v>140</v>
       </c>
@@ -2919,7 +3434,7 @@
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="31"/>
       <c r="B3" s="11" t="s">
         <v>111</v>
@@ -2937,7 +3452,7 @@
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="31"/>
       <c r="B4" s="11" t="s">
         <v>115</v>
@@ -2955,7 +3470,7 @@
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="31"/>
       <c r="B5" s="11" t="s">
         <v>113</v>
@@ -2973,7 +3488,7 @@
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="31"/>
       <c r="B6" s="11" t="s">
         <v>114</v>
@@ -2991,7 +3506,7 @@
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="31"/>
       <c r="B7" s="11" t="s">
         <v>122</v>
@@ -3013,7 +3528,7 @@
       </c>
       <c r="J7" s="11"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="31" t="s">
         <v>117</v>
       </c>
@@ -3035,7 +3550,7 @@
       </c>
       <c r="J8" s="11"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="31"/>
       <c r="B9" s="11" t="s">
         <v>133</v>
@@ -3053,7 +3568,7 @@
       </c>
       <c r="J9" s="11"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="31"/>
       <c r="B10" s="11" t="s">
         <v>149</v>
@@ -3073,7 +3588,7 @@
       </c>
       <c r="J10" s="11"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="31" t="s">
         <v>125</v>
       </c>
@@ -3093,7 +3608,7 @@
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="31"/>
       <c r="B12" s="11" t="s">
         <v>145</v>
@@ -3109,7 +3624,7 @@
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="31"/>
       <c r="B13" s="11" t="s">
         <v>142</v>
@@ -3125,7 +3640,7 @@
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="31"/>
       <c r="B14" s="11" t="s">
         <v>143</v>
@@ -3141,7 +3656,7 @@
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="31"/>
       <c r="B15" s="11" t="s">
         <v>144</v>
@@ -3157,7 +3672,7 @@
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="31"/>
       <c r="B16" s="11" t="s">
         <v>123</v>
@@ -3175,7 +3690,7 @@
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="31"/>
       <c r="B17" s="11" t="s">
         <v>152</v>
@@ -3193,7 +3708,7 @@
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="31" t="s">
         <v>116</v>
       </c>
@@ -3211,7 +3726,7 @@
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="31"/>
       <c r="B19" s="11" t="s">
         <v>130</v>
@@ -3227,7 +3742,7 @@
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="31"/>
       <c r="B20" s="11" t="s">
         <v>131</v>
@@ -3245,7 +3760,7 @@
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="31"/>
       <c r="B21" s="11" t="s">
         <v>154</v>
@@ -3263,7 +3778,7 @@
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="31"/>
       <c r="B22" s="11" t="s">
         <v>129</v>
@@ -3279,7 +3794,7 @@
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="31" t="s">
         <v>132</v>
       </c>
@@ -3297,7 +3812,7 @@
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="31"/>
       <c r="B24" s="11" t="s">
         <v>119</v>
@@ -3313,7 +3828,7 @@
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="31"/>
       <c r="B25" s="11" t="s">
         <v>156</v>
@@ -3329,7 +3844,7 @@
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="31"/>
       <c r="B26" s="11" t="s">
         <v>155</v>
@@ -3345,7 +3860,7 @@
       <c r="I26" s="11"/>
       <c r="J26" s="11"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="31" t="s">
         <v>126</v>
       </c>
@@ -3361,7 +3876,7 @@
       <c r="I27" s="11"/>
       <c r="J27" s="11"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="31"/>
       <c r="B28" s="11" t="s">
         <v>121</v>
@@ -3375,7 +3890,7 @@
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="31"/>
       <c r="B29" s="11" t="s">
         <v>127</v>
@@ -3389,7 +3904,7 @@
       <c r="I29" s="11"/>
       <c r="J29" s="11"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="31"/>
       <c r="B30" s="11" t="s">
         <v>147</v>
@@ -3403,7 +3918,7 @@
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="9"/>
     </row>
   </sheetData>
@@ -3432,7 +3947,7 @@
       <selection pane="bottomRight" activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.75" customWidth="1"/>
     <col min="2" max="2" width="9" style="19"/>
@@ -3445,8 +3960,8 @@
     <col min="15" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="18" customFormat="1"/>
-    <row r="6" spans="1:14" s="20" customFormat="1">
+    <row r="1" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="17" t="s">
         <v>245</v>
       </c>
@@ -3490,7 +4005,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B7" s="19" t="s">
         <v>199</v>
       </c>
@@ -3510,7 +4025,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B8" s="19" t="s">
         <v>171</v>
       </c>
@@ -3527,7 +4042,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B9" s="19" t="s">
         <v>174</v>
       </c>
@@ -3547,7 +4062,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B10" s="19" t="s">
         <v>175</v>
       </c>
@@ -3567,7 +4082,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B11" s="19" t="s">
         <v>176</v>
       </c>
@@ -3587,7 +4102,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B12" s="19" t="s">
         <v>246</v>
       </c>
@@ -3610,7 +4125,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B13" s="19" t="s">
         <v>163</v>
       </c>
@@ -3633,7 +4148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B14" s="19" t="s">
         <v>168</v>
       </c>
@@ -3659,7 +4174,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B15" s="19" t="s">
         <v>169</v>
       </c>
@@ -3682,7 +4197,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B16" s="19" t="s">
         <v>170</v>
       </c>
@@ -3702,7 +4217,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:14">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B17" s="19" t="s">
         <v>195</v>
       </c>
@@ -3719,7 +4234,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:14">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B18" s="19" t="s">
         <v>197</v>
       </c>
@@ -3742,7 +4257,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="2:14">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B19" s="19" t="s">
         <v>172</v>
       </c>
@@ -3765,7 +4280,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="2:14">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B20" s="19" t="s">
         <v>196</v>
       </c>
@@ -3791,7 +4306,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="2:14">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B21" s="19" t="s">
         <v>177</v>
       </c>
@@ -3814,7 +4329,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="2:14">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B22" s="19" t="s">
         <v>178</v>
       </c>
@@ -3837,7 +4352,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="2:14">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B23" s="19" t="s">
         <v>179</v>
       </c>
@@ -3863,7 +4378,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="2:14">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B24" s="19" t="s">
         <v>180</v>
       </c>
@@ -3880,7 +4395,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="2:14">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B25" s="19" t="s">
         <v>181</v>
       </c>
@@ -3903,7 +4418,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="2:14">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B26" s="19" t="s">
         <v>182</v>
       </c>
@@ -3926,7 +4441,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="2:14">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B27" s="19" t="s">
         <v>183</v>
       </c>
@@ -3943,7 +4458,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="2:14">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B28" s="19" t="s">
         <v>184</v>
       </c>
@@ -3960,7 +4475,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="2:14">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B29" s="19" t="s">
         <v>185</v>
       </c>
@@ -3977,7 +4492,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="2:14">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B30" s="19" t="s">
         <v>186</v>
       </c>
@@ -3994,7 +4509,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="2:14">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B31" s="19" t="s">
         <v>187</v>
       </c>
@@ -4014,7 +4529,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="2:14">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B32" s="19" t="s">
         <v>188</v>
       </c>
@@ -4034,7 +4549,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="2:13">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B33" s="19" t="s">
         <v>189</v>
       </c>
@@ -4054,7 +4569,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="2:13">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B34" s="19" t="s">
         <v>195</v>
       </c>
@@ -4071,7 +4586,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="2:13">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B35" s="19" t="s">
         <v>198</v>
       </c>
@@ -4088,7 +4603,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="2:13">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B36" s="19" t="s">
         <v>161</v>
       </c>
@@ -4111,7 +4626,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="2:13">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B37" s="19" t="s">
         <v>200</v>
       </c>
@@ -4134,7 +4649,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="2:13">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B38" s="19" t="s">
         <v>190</v>
       </c>
@@ -4157,7 +4672,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="2:13">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B39" s="19" t="s">
         <v>193</v>
       </c>
@@ -4180,7 +4695,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="2:13">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B40" s="19" t="s">
         <v>162</v>
       </c>
@@ -4205,7 +4720,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="2:13">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B41" s="19" t="s">
         <v>191</v>
       </c>
@@ -4230,7 +4745,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="2:13">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B42" s="19" t="s">
         <v>192</v>
       </c>
@@ -4255,7 +4770,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="2:13">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B43" s="19" t="s">
         <v>194</v>
       </c>
@@ -4280,7 +4795,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="2:13">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B44" s="19" t="s">
         <v>201</v>
       </c>
@@ -4303,7 +4818,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="2:13">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B45" s="19" t="s">
         <v>202</v>
       </c>
@@ -4328,7 +4843,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="2:13">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B46" s="19" t="s">
         <v>173</v>
       </c>
@@ -4353,7 +4868,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="2:13">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B47" s="19" t="s">
         <v>203</v>
       </c>
@@ -4378,7 +4893,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="2:13">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B48" s="19" t="s">
         <v>204</v>
       </c>
@@ -4403,7 +4918,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="2:13">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B49" s="19" t="s">
         <v>205</v>
       </c>
@@ -4428,7 +4943,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="2:13">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B50" s="19" t="s">
         <v>206</v>
       </c>
@@ -4453,7 +4968,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="2:13">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B51" s="19" t="s">
         <v>207</v>
       </c>
@@ -4478,7 +4993,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="2:13">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B52" s="19" t="s">
         <v>208</v>
       </c>
@@ -4505,7 +5020,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="2:13">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B53" s="19" t="s">
         <v>209</v>
       </c>
@@ -4530,7 +5045,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="2:13">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B54" s="19" t="s">
         <v>210</v>
       </c>
@@ -4557,7 +5072,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="2:13">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B55" s="19" t="s">
         <v>211</v>
       </c>
@@ -4584,7 +5099,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="2:13">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B56" s="19" t="s">
         <v>212</v>
       </c>
@@ -4609,7 +5124,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="2:13">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B57" s="19" t="s">
         <v>213</v>
       </c>
@@ -4634,7 +5149,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="2:13">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B58" s="19" t="s">
         <v>214</v>
       </c>
@@ -4661,7 +5176,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="2:13">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B59" s="19" t="s">
         <v>215</v>
       </c>
@@ -4688,7 +5203,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="2:13">
+    <row r="60" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B60" s="19" t="s">
         <v>216</v>
       </c>
@@ -4715,7 +5230,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="2:13">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B61" s="19" t="s">
         <v>217</v>
       </c>
@@ -4744,7 +5259,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="2:13">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B62" s="19" t="s">
         <v>218</v>
       </c>
@@ -4773,7 +5288,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="2:13">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B63" s="19" t="s">
         <v>219</v>
       </c>
@@ -4800,7 +5315,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="2:13">
+    <row r="64" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B64" s="19" t="s">
         <v>220</v>
       </c>
@@ -4827,7 +5342,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="2:13">
+    <row r="65" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B65" s="19" t="s">
         <v>221</v>
       </c>
@@ -4854,7 +5369,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="2:13">
+    <row r="66" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B66" s="19" t="s">
         <v>222</v>
       </c>
@@ -4881,7 +5396,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="2:13">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B67" s="19" t="s">
         <v>207</v>
       </c>
@@ -4908,7 +5423,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="2:13">
+    <row r="68" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B68" s="19" t="s">
         <v>223</v>
       </c>
@@ -4935,7 +5450,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="2:13">
+    <row r="69" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B69" s="19" t="s">
         <v>224</v>
       </c>
@@ -4962,7 +5477,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="2:13">
+    <row r="70" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B70" s="19" t="s">
         <v>225</v>
       </c>
@@ -4989,7 +5504,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="2:13">
+    <row r="71" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B71" s="19" t="s">
         <v>226</v>
       </c>
@@ -5016,7 +5531,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="2:13">
+    <row r="72" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B72" s="19" t="s">
         <v>227</v>
       </c>
@@ -5043,7 +5558,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="2:13">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B73" s="19" t="s">
         <v>228</v>
       </c>
@@ -5070,7 +5585,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="2:13">
+    <row r="74" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B74" s="19" t="s">
         <v>229</v>
       </c>
@@ -5097,7 +5612,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="2:13">
+    <row r="75" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B75" s="19" t="s">
         <v>230</v>
       </c>
@@ -5124,7 +5639,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="2:13">
+    <row r="76" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B76" s="19" t="s">
         <v>231</v>
       </c>
@@ -5151,7 +5666,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="2:13">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B77" s="19" t="s">
         <v>232</v>
       </c>
@@ -5178,7 +5693,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="2:13">
+    <row r="78" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B78" s="19" t="s">
         <v>233</v>
       </c>
@@ -5205,7 +5720,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="2:13">
+    <row r="79" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B79" s="19" t="s">
         <v>234</v>
       </c>
@@ -5232,7 +5747,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="2:13">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B80" s="19" t="s">
         <v>235</v>
       </c>
@@ -5259,7 +5774,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="2:13">
+    <row r="81" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B81" s="19" t="s">
         <v>236</v>
       </c>
@@ -5286,7 +5801,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="2:13">
+    <row r="82" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B82" s="19" t="s">
         <v>242</v>
       </c>
@@ -5330,9 +5845,9 @@
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>273</v>
       </c>
@@ -5343,7 +5858,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>260</v>
       </c>
@@ -5354,7 +5869,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>266</v>
       </c>
@@ -5368,7 +5883,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>258</v>
       </c>
@@ -5382,7 +5897,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>259</v>
       </c>
@@ -5396,7 +5911,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>252</v>
       </c>
@@ -5410,7 +5925,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>251</v>
       </c>
@@ -5424,7 +5939,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>263</v>
       </c>
@@ -5438,7 +5953,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>264</v>
       </c>
@@ -5452,7 +5967,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>261</v>
       </c>
@@ -5460,7 +5975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>257</v>
       </c>
@@ -5474,7 +5989,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>262</v>
       </c>
@@ -5491,7 +6006,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>265</v>
       </c>
@@ -5508,7 +6023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>267</v>
       </c>
@@ -5525,7 +6040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>268</v>
       </c>
@@ -5542,7 +6057,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>269</v>
       </c>
@@ -5559,7 +6074,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>270</v>
       </c>
@@ -5576,7 +6091,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>272</v>
       </c>
@@ -5584,7 +6099,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>271</v>
       </c>
@@ -5602,18 +6117,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="52.5" customWidth="1"/>
     <col min="3" max="3" width="29.125" customWidth="1"/>
     <col min="5" max="5" width="39.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="22" t="s">
         <v>275</v>
       </c>
@@ -5621,7 +6136,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="32" t="s">
         <v>276</v>
       </c>
@@ -5632,31 +6147,31 @@
         <v>282</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="32"/>
       <c r="B3" s="23" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="32"/>
       <c r="B4" s="23" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="32"/>
       <c r="B5" s="23" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="32"/>
       <c r="B6" s="23" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="16" t="s">
         <v>277</v>
       </c>
@@ -5664,7 +6179,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="32" t="s">
         <v>278</v>
       </c>
@@ -5672,19 +6187,19 @@
         <v>293</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="32"/>
       <c r="B9" s="23" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="32"/>
       <c r="B10" s="23" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="16" t="s">
         <v>279</v>
       </c>
@@ -5692,7 +6207,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="16" t="s">
         <v>286</v>
       </c>
@@ -5700,11 +6215,11 @@
         <v>287</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="24"/>
       <c r="B13" s="25"/>
     </row>
-    <row r="20" spans="4:5" ht="94.5">
+    <row r="20" spans="4:5" ht="94.5" x14ac:dyDescent="0.15">
       <c r="D20" s="15" t="s">
         <v>249</v>
       </c>
@@ -5724,30 +6239,73 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="14"/>
-    <col min="2" max="2" width="55.625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="83.125" style="5" customWidth="1"/>
     <col min="3" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
-        <v>298</v>
-      </c>
-      <c r="B1" s="14" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="27">
+      <c r="B1" s="5" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="14" t="s">
+        <v>334</v>
+      </c>
       <c r="B2" s="5" t="s">
-        <v>355</v>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B3" s="5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="B4" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="B5" s="5" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B6" s="5" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="B7" s="5" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="B8" s="5" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B9" s="5" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B10" s="5" t="s">
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -5759,134 +6317,70 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="8.25" customWidth="1"/>
-    <col min="3" max="3" width="8.125" customWidth="1"/>
-    <col min="5" max="5" width="7.75" customWidth="1"/>
-    <col min="6" max="6" width="6.875" customWidth="1"/>
-    <col min="7" max="7" width="7.5" customWidth="1"/>
+    <col min="1" max="1" width="10.125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="48.5" style="5" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C1" t="s">
-        <v>316</v>
-      </c>
-      <c r="F1" t="s">
-        <v>301</v>
-      </c>
-      <c r="G1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="B2" t="s">
-        <v>300</v>
-      </c>
-      <c r="C2" t="s">
-        <v>317</v>
-      </c>
-      <c r="F2" t="s">
-        <v>302</v>
-      </c>
-      <c r="G2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="B4" t="s">
-        <v>313</v>
-      </c>
-      <c r="C4" t="s">
-        <v>324</v>
-      </c>
-      <c r="F4" t="s">
-        <v>314</v>
-      </c>
-      <c r="G4" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="F7" t="s">
-        <v>305</v>
-      </c>
-      <c r="G7" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="B8" t="s">
-        <v>303</v>
-      </c>
-      <c r="C8" t="s">
+    <row r="1" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="54" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="E8" t="s">
-        <v>304</v>
-      </c>
-      <c r="F8" t="s">
-        <v>321</v>
-      </c>
-      <c r="G8" t="s">
-        <v>307</v>
-      </c>
-      <c r="H8" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="F9" t="s">
-        <v>306</v>
-      </c>
-      <c r="G9" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="B10" t="s">
-        <v>308</v>
-      </c>
-      <c r="C10" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>310</v>
-      </c>
-      <c r="B11" t="s">
-        <v>326</v>
-      </c>
-      <c r="C11" t="s">
-        <v>311</v>
-      </c>
-      <c r="D11" t="s">
-        <v>326</v>
-      </c>
-      <c r="F11" t="s">
-        <v>312</v>
-      </c>
-      <c r="G11" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="B12" t="s">
-        <v>309</v>
+      <c r="B2" s="5" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>377</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/黑社会/黑社会.xlsx
+++ b/黑社会/黑社会.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-90" windowWidth="29040" windowHeight="15960" firstSheet="7" activeTab="9"/>
+    <workbookView xWindow="-120" yWindow="-90" windowWidth="29040" windowHeight="15960" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="7" r:id="rId1"/>
@@ -20,12 +20,12 @@
     <sheet name="玩家属性" sheetId="12" r:id="rId11"/>
     <sheet name="武器" sheetId="15" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="122211" concurrentCalc="0"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="413">
   <si>
     <t>CP-5-2应急预案</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1493,103 +1493,193 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>J</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>副手</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>轻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换主副手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主手轻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主手重击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻砍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通子弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊子弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通子弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单按B时闪避，闪避有无敌帧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长按B进入跑动状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>跳跃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>防御</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钩子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>space</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪避</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shift</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滚动物品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>切换模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>切换主副手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用物品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>切换武器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>副手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>轻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>切换主副手</t>
+    <t>喷射器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得喷射器后，长按A键会获得一个瞬间喷射的速度，后持续按住可以飞行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A键跳跃，可蹬墙跳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开商店区的另外一个通道入口，这里已经被虫群占领，又一个小型的虫巢。这里的敌人。找到一个破损的机器人残骸，修复了喷射器。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在虫巢的下方发现了一个小型的幸存者聚集地。这里只有12个人，小心翼翼的不被虫群发现，生活在这里。希望能够重新回到地面。（基地）了解到，飞船还有4个幸存者聚集地，但是被切断了路线无法来往，只是通过通讯系统确认了对方的存在，但是通讯系统已经损坏，现在也无法确定具体情况。
+临走前给了一张附近的地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续向下前进，进入居民区，清理零散的敌人，在尽头遭遇一个神秘NPC，NPC对主角进行了考验，胜利后继续前进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入生态圈，周围的数目全部死亡，水也腐化变为毒沼。生活着变异生物。BOSS是一只产生了理智的野兽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入工业区击暴走的机械敌人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到达地面，进入森林，在深林深处中了幻术，击败加特林菩萨，在峡谷中发现了一个聚集地。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动能武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AE86冲锋枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电棍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LGD光束炮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能消耗灵能使用
+灵能数值大于50时攻击会获得额外加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>源石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当充能满时，切换武器会使用特殊技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用武器时会提升武器的过载，需要定时切换武器等待过载降低，当达到过载时将在一个较长时间无法使用武器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1602,15 +1692,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>主手轻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主手重击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>轻砍</t>
+    <t>轻击</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1618,140 +1700,98 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>普通子弹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特殊子弹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通子弹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单按B时闪避，闪避有无敌帧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长按B进入跑动状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳跃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>喷射器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得喷射器后，长按A键会获得一个瞬间喷射的速度，后持续按住可以飞行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A键跳跃，可蹬墙跳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打开商店区的另外一个通道入口，这里已经被虫群占领，又一个小型的虫巢。这里的敌人。找到一个破损的机器人残骸，修复了喷射器。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在虫巢的下方发现了一个小型的幸存者聚集地。这里只有12个人，小心翼翼的不被虫群发现，生活在这里。希望能够重新回到地面。（基地）了解到，飞船还有4个幸存者聚集地，但是被切断了路线无法来往，只是通过通讯系统确认了对方的存在，但是通讯系统已经损坏，现在也无法确定具体情况。
-临走前给了一张附近的地图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>继续向下前进，进入居民区，清理零散的敌人，在尽头遭遇一个神秘NPC，NPC对主角进行了考验，胜利后继续前进</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入生态圈，周围的数目全部死亡，水也腐化变为毒沼。生活着变异生物。BOSS是一只产生了理智的野兽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入工业区击暴走的机械敌人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>到达地面，进入森林，在深林深处中了幻术，击败加特林菩萨，在峡谷中发现了一个聚集地。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动能武器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能量武器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钢管</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>近战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>远程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AE86冲锋枪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电棍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LGD光束炮</t>
+    <t>防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>space</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shift</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避</t>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重击,取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳，确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>，交互</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>轻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>副手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>切物品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>锁定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>切换武器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1759,7 +1799,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2282,14 +2322,14 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="15"/>
     <col min="2" max="2" width="51.125" style="5" customWidth="1"/>
     <col min="3" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="67.5">
       <c r="A1" s="15" t="s">
         <v>295</v>
       </c>
@@ -2306,13 +2346,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="14"/>
     <col min="2" max="2" width="8.25" style="14" customWidth="1"/>
@@ -2324,7 +2364,7 @@
     <col min="8" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="B1" s="14" t="s">
         <v>298</v>
       </c>
@@ -2335,24 +2375,24 @@
         <v>300</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="B2" s="14" t="s">
         <v>299</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>301</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="B4" s="14" t="s">
         <v>312</v>
       </c>
@@ -2366,7 +2406,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="B6" s="14" t="s">
         <v>302</v>
       </c>
@@ -2377,10 +2417,10 @@
         <v>304</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="E7" s="14" t="s">
         <v>303</v>
       </c>
@@ -2394,12 +2434,12 @@
         <v>328</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="B8" s="14" t="s">
         <v>307</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="F8" s="14" t="s">
         <v>305</v>
@@ -2408,7 +2448,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="14" t="s">
         <v>309</v>
       </c>
@@ -2422,7 +2462,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="B10" s="14" t="s">
         <v>308</v>
       </c>
@@ -2433,116 +2473,181 @@
         <v>316</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B17" s="14" t="s">
-        <v>298</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>300</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B18" s="14" t="s">
-        <v>299</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>399</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>301</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B20" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="C20" s="14" t="s">
+    <row r="16" spans="1:8">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15" t="s">
+        <v>389</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="F20" s="14" t="s">
-        <v>313</v>
-      </c>
-      <c r="G20" s="14" t="s">
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B22" s="14" t="s">
-        <v>302</v>
-      </c>
-      <c r="C22" s="14" t="s">
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15" t="s">
         <v>314</v>
       </c>
-      <c r="F22" s="14" t="s">
-        <v>304</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="E23" s="14" t="s">
-        <v>303</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>396</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="H23" s="14" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B24" s="14" t="s">
-        <v>307</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>317</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>305</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="14" t="s">
-        <v>309</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>398</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>310</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B26" s="14" t="s">
-        <v>308</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>302</v>
-      </c>
-      <c r="G26" s="14" t="s">
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15" t="s">
+        <v>409</v>
+      </c>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15" t="s">
+        <v>408</v>
+      </c>
+      <c r="H23" s="15"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15" t="s">
+        <v>390</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="15"/>
+      <c r="B26" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G26" s="15"/>
+      <c r="H26" s="15" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="14" t="s">
         <v>335</v>
       </c>
@@ -2550,84 +2655,76 @@
         <v>336</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2">
       <c r="A33" s="14" t="s">
         <v>337</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="B35" s="14" t="s">
         <v>340</v>
       </c>
-      <c r="B34" s="14" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="14" t="s">
-        <v>338</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" s="14" t="s">
-        <v>341</v>
+        <v>392</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" s="14" t="s">
-        <v>339</v>
+        <v>394</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" s="14" t="s">
-        <v>346</v>
+        <v>396</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" s="14" t="s">
-        <v>348</v>
+        <v>398</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" s="14" t="s">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" s="14" t="s">
-        <v>352</v>
+        <v>402</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="14" t="s">
-        <v>354</v>
-      </c>
-      <c r="B42" s="14" t="s">
-        <v>356</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -2644,7 +2741,7 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="8.875" customWidth="1"/>
@@ -2654,7 +2751,7 @@
     <col min="6" max="6" width="20.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" s="26" t="s">
         <v>322</v>
       </c>
@@ -2665,9 +2762,9 @@
         <v>321</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="A3" s="27" t="s">
-        <v>385</v>
+        <v>366</v>
       </c>
       <c r="B3" s="11">
         <v>1</v>
@@ -2676,9 +2773,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="A4" s="27" t="s">
-        <v>386</v>
+        <v>367</v>
       </c>
       <c r="B4" s="11">
         <v>0</v>
@@ -2687,72 +2784,72 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6" s="11"/>
       <c r="B6" s="27" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="27" t="s">
         <v>323</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>368</v>
+        <v>349</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="27" t="s">
         <v>324</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="27" t="s">
         <v>325</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>368</v>
+        <v>349</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="27" t="s">
         <v>326</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -2770,7 +2867,7 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.875" style="14" customWidth="1"/>
     <col min="2" max="5" width="5.625" style="14" bestFit="1" customWidth="1"/>
@@ -2778,26 +2875,26 @@
     <col min="7" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="14" t="s">
-        <v>387</v>
+        <v>368</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>389</v>
+        <v>370</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>392</v>
+        <v>373</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="14" t="s">
-        <v>388</v>
+        <v>369</v>
       </c>
       <c r="B2" s="14">
         <v>1</v>
@@ -2806,9 +2903,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" s="14" t="s">
-        <v>394</v>
+        <v>375</v>
       </c>
       <c r="C3" s="14">
         <v>1</v>
@@ -2820,9 +2917,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" s="14" t="s">
-        <v>393</v>
+        <v>374</v>
       </c>
       <c r="C4" s="14">
         <v>1</v>
@@ -2831,9 +2928,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" s="14" t="s">
-        <v>395</v>
+        <v>376</v>
       </c>
       <c r="C5" s="14">
         <v>1</v>
@@ -2853,17 +2950,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="19.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="85.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="108" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="108" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2871,7 +2968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="364.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="364.5">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2879,7 +2976,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="40.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2887,7 +2984,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="54" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="54">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2895,7 +2992,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="84" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="84" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -2903,7 +3000,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="216" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="216" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -2911,7 +3008,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="67.5" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -2919,7 +3016,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" ht="94.5" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -2927,7 +3024,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="54" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2" ht="54">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -2935,7 +3032,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2" ht="67.5">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -2943,7 +3040,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2" ht="40.5">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -2951,7 +3048,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2" ht="40.5">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -2977,7 +3074,7 @@
       <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.625" style="5" customWidth="1"/>
     <col min="2" max="2" width="3.75" style="8" customWidth="1"/>
@@ -2990,7 +3087,7 @@
     <col min="10" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="30" t="s">
         <v>35</v>
       </c>
@@ -3017,7 +3114,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="27">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -3046,7 +3143,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="27">
       <c r="A3" s="13">
         <v>11</v>
       </c>
@@ -3075,7 +3172,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="40.5">
       <c r="A4" s="13">
         <v>31</v>
       </c>
@@ -3104,7 +3201,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" ht="27">
       <c r="A5" s="13">
         <v>51</v>
       </c>
@@ -3131,7 +3228,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="40.5">
       <c r="A6" s="13">
         <v>71</v>
       </c>
@@ -3160,7 +3257,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" ht="40.5">
       <c r="A7" s="13">
         <v>91</v>
       </c>
@@ -3189,7 +3286,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" ht="40.5">
       <c r="A8" s="13">
         <v>111</v>
       </c>
@@ -3218,7 +3315,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" ht="54">
       <c r="A9" s="13">
         <v>141</v>
       </c>
@@ -3247,7 +3344,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" ht="40.5">
       <c r="A10" s="13">
         <v>171</v>
       </c>
@@ -3276,7 +3373,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" ht="54">
       <c r="A11" s="13">
         <v>201</v>
       </c>
@@ -3305,7 +3402,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" ht="54">
       <c r="A12" s="13">
         <v>251</v>
       </c>
@@ -3334,19 +3431,19 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="B13" s="5"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="B14" s="5"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9">
       <c r="B15" s="5"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9">
       <c r="B16" s="5"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:2">
       <c r="B17" s="5"/>
     </row>
   </sheetData>
@@ -3367,7 +3464,7 @@
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="7.625" customWidth="1"/>
     <col min="2" max="2" width="8.125" customWidth="1"/>
@@ -3382,7 +3479,7 @@
     <col min="13" max="13" width="4.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="A1" s="12" t="s">
         <v>157</v>
       </c>
@@ -3414,7 +3511,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="A2" s="31" t="s">
         <v>140</v>
       </c>
@@ -3434,7 +3531,7 @@
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="A3" s="31"/>
       <c r="B3" s="11" t="s">
         <v>111</v>
@@ -3452,7 +3549,7 @@
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10">
       <c r="A4" s="31"/>
       <c r="B4" s="11" t="s">
         <v>115</v>
@@ -3470,7 +3567,7 @@
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10">
       <c r="A5" s="31"/>
       <c r="B5" s="11" t="s">
         <v>113</v>
@@ -3488,7 +3585,7 @@
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10">
       <c r="A6" s="31"/>
       <c r="B6" s="11" t="s">
         <v>114</v>
@@ -3506,7 +3603,7 @@
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10">
       <c r="A7" s="31"/>
       <c r="B7" s="11" t="s">
         <v>122</v>
@@ -3528,7 +3625,7 @@
       </c>
       <c r="J7" s="11"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10">
       <c r="A8" s="31" t="s">
         <v>117</v>
       </c>
@@ -3550,7 +3647,7 @@
       </c>
       <c r="J8" s="11"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10">
       <c r="A9" s="31"/>
       <c r="B9" s="11" t="s">
         <v>133</v>
@@ -3568,7 +3665,7 @@
       </c>
       <c r="J9" s="11"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10">
       <c r="A10" s="31"/>
       <c r="B10" s="11" t="s">
         <v>149</v>
@@ -3588,7 +3685,7 @@
       </c>
       <c r="J10" s="11"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10">
       <c r="A11" s="31" t="s">
         <v>125</v>
       </c>
@@ -3608,7 +3705,7 @@
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10">
       <c r="A12" s="31"/>
       <c r="B12" s="11" t="s">
         <v>145</v>
@@ -3624,7 +3721,7 @@
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10">
       <c r="A13" s="31"/>
       <c r="B13" s="11" t="s">
         <v>142</v>
@@ -3640,7 +3737,7 @@
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10">
       <c r="A14" s="31"/>
       <c r="B14" s="11" t="s">
         <v>143</v>
@@ -3656,7 +3753,7 @@
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10">
       <c r="A15" s="31"/>
       <c r="B15" s="11" t="s">
         <v>144</v>
@@ -3672,7 +3769,7 @@
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10">
       <c r="A16" s="31"/>
       <c r="B16" s="11" t="s">
         <v>123</v>
@@ -3690,7 +3787,7 @@
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10">
       <c r="A17" s="31"/>
       <c r="B17" s="11" t="s">
         <v>152</v>
@@ -3708,7 +3805,7 @@
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10">
       <c r="A18" s="31" t="s">
         <v>116</v>
       </c>
@@ -3726,7 +3823,7 @@
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10">
       <c r="A19" s="31"/>
       <c r="B19" s="11" t="s">
         <v>130</v>
@@ -3742,7 +3839,7 @@
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10">
       <c r="A20" s="31"/>
       <c r="B20" s="11" t="s">
         <v>131</v>
@@ -3760,7 +3857,7 @@
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10">
       <c r="A21" s="31"/>
       <c r="B21" s="11" t="s">
         <v>154</v>
@@ -3778,7 +3875,7 @@
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10">
       <c r="A22" s="31"/>
       <c r="B22" s="11" t="s">
         <v>129</v>
@@ -3794,7 +3891,7 @@
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10">
       <c r="A23" s="31" t="s">
         <v>132</v>
       </c>
@@ -3812,7 +3909,7 @@
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10">
       <c r="A24" s="31"/>
       <c r="B24" s="11" t="s">
         <v>119</v>
@@ -3828,7 +3925,7 @@
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10">
       <c r="A25" s="31"/>
       <c r="B25" s="11" t="s">
         <v>156</v>
@@ -3844,7 +3941,7 @@
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10">
       <c r="A26" s="31"/>
       <c r="B26" s="11" t="s">
         <v>155</v>
@@ -3860,7 +3957,7 @@
       <c r="I26" s="11"/>
       <c r="J26" s="11"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10">
       <c r="A27" s="31" t="s">
         <v>126</v>
       </c>
@@ -3876,7 +3973,7 @@
       <c r="I27" s="11"/>
       <c r="J27" s="11"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10">
       <c r="A28" s="31"/>
       <c r="B28" s="11" t="s">
         <v>121</v>
@@ -3890,7 +3987,7 @@
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10">
       <c r="A29" s="31"/>
       <c r="B29" s="11" t="s">
         <v>127</v>
@@ -3904,7 +4001,7 @@
       <c r="I29" s="11"/>
       <c r="J29" s="11"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10">
       <c r="A30" s="31"/>
       <c r="B30" s="11" t="s">
         <v>147</v>
@@ -3918,7 +4015,7 @@
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10">
       <c r="A31" s="9"/>
     </row>
   </sheetData>
@@ -3947,7 +4044,7 @@
       <selection pane="bottomRight" activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6.75" customWidth="1"/>
     <col min="2" max="2" width="9" style="19"/>
@@ -3960,8 +4057,8 @@
     <col min="15" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" s="18" customFormat="1"/>
+    <row r="6" spans="1:14" s="20" customFormat="1">
       <c r="A6" s="17" t="s">
         <v>245</v>
       </c>
@@ -4005,7 +4102,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14">
       <c r="B7" s="19" t="s">
         <v>199</v>
       </c>
@@ -4025,7 +4122,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14">
       <c r="B8" s="19" t="s">
         <v>171</v>
       </c>
@@ -4042,7 +4139,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14">
       <c r="B9" s="19" t="s">
         <v>174</v>
       </c>
@@ -4062,7 +4159,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14">
       <c r="B10" s="19" t="s">
         <v>175</v>
       </c>
@@ -4082,7 +4179,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14">
       <c r="B11" s="19" t="s">
         <v>176</v>
       </c>
@@ -4102,7 +4199,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14">
       <c r="B12" s="19" t="s">
         <v>246</v>
       </c>
@@ -4125,7 +4222,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14">
       <c r="B13" s="19" t="s">
         <v>163</v>
       </c>
@@ -4148,7 +4245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14">
       <c r="B14" s="19" t="s">
         <v>168</v>
       </c>
@@ -4174,7 +4271,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14">
       <c r="B15" s="19" t="s">
         <v>169</v>
       </c>
@@ -4197,7 +4294,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14">
       <c r="B16" s="19" t="s">
         <v>170</v>
       </c>
@@ -4217,7 +4314,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:14">
       <c r="B17" s="19" t="s">
         <v>195</v>
       </c>
@@ -4234,7 +4331,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:14">
       <c r="B18" s="19" t="s">
         <v>197</v>
       </c>
@@ -4257,7 +4354,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:14">
       <c r="B19" s="19" t="s">
         <v>172</v>
       </c>
@@ -4280,7 +4377,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:14">
       <c r="B20" s="19" t="s">
         <v>196</v>
       </c>
@@ -4306,7 +4403,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:14">
       <c r="B21" s="19" t="s">
         <v>177</v>
       </c>
@@ -4329,7 +4426,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:14">
       <c r="B22" s="19" t="s">
         <v>178</v>
       </c>
@@ -4352,7 +4449,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:14">
       <c r="B23" s="19" t="s">
         <v>179</v>
       </c>
@@ -4378,7 +4475,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:14">
       <c r="B24" s="19" t="s">
         <v>180</v>
       </c>
@@ -4395,7 +4492,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:14">
       <c r="B25" s="19" t="s">
         <v>181</v>
       </c>
@@ -4418,7 +4515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:14">
       <c r="B26" s="19" t="s">
         <v>182</v>
       </c>
@@ -4441,7 +4538,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:14">
       <c r="B27" s="19" t="s">
         <v>183</v>
       </c>
@@ -4458,7 +4555,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:14">
       <c r="B28" s="19" t="s">
         <v>184</v>
       </c>
@@ -4475,7 +4572,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:14">
       <c r="B29" s="19" t="s">
         <v>185</v>
       </c>
@@ -4492,7 +4589,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:14">
       <c r="B30" s="19" t="s">
         <v>186</v>
       </c>
@@ -4509,7 +4606,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:14">
       <c r="B31" s="19" t="s">
         <v>187</v>
       </c>
@@ -4529,7 +4626,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:14">
       <c r="B32" s="19" t="s">
         <v>188</v>
       </c>
@@ -4549,7 +4646,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:13">
       <c r="B33" s="19" t="s">
         <v>189</v>
       </c>
@@ -4569,7 +4666,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:13">
       <c r="B34" s="19" t="s">
         <v>195</v>
       </c>
@@ -4586,7 +4683,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:13">
       <c r="B35" s="19" t="s">
         <v>198</v>
       </c>
@@ -4603,7 +4700,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:13">
       <c r="B36" s="19" t="s">
         <v>161</v>
       </c>
@@ -4626,7 +4723,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:13">
       <c r="B37" s="19" t="s">
         <v>200</v>
       </c>
@@ -4649,7 +4746,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:13">
       <c r="B38" s="19" t="s">
         <v>190</v>
       </c>
@@ -4672,7 +4769,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:13">
       <c r="B39" s="19" t="s">
         <v>193</v>
       </c>
@@ -4695,7 +4792,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:13">
       <c r="B40" s="19" t="s">
         <v>162</v>
       </c>
@@ -4720,7 +4817,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:13">
       <c r="B41" s="19" t="s">
         <v>191</v>
       </c>
@@ -4745,7 +4842,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:13">
       <c r="B42" s="19" t="s">
         <v>192</v>
       </c>
@@ -4770,7 +4867,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:13">
       <c r="B43" s="19" t="s">
         <v>194</v>
       </c>
@@ -4795,7 +4892,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:13">
       <c r="B44" s="19" t="s">
         <v>201</v>
       </c>
@@ -4818,7 +4915,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:13">
       <c r="B45" s="19" t="s">
         <v>202</v>
       </c>
@@ -4843,7 +4940,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:13">
       <c r="B46" s="19" t="s">
         <v>173</v>
       </c>
@@ -4868,7 +4965,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:13">
       <c r="B47" s="19" t="s">
         <v>203</v>
       </c>
@@ -4893,7 +4990,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:13">
       <c r="B48" s="19" t="s">
         <v>204</v>
       </c>
@@ -4918,7 +5015,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:13">
       <c r="B49" s="19" t="s">
         <v>205</v>
       </c>
@@ -4943,7 +5040,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:13">
       <c r="B50" s="19" t="s">
         <v>206</v>
       </c>
@@ -4968,7 +5065,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:13">
       <c r="B51" s="19" t="s">
         <v>207</v>
       </c>
@@ -4993,7 +5090,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:13">
       <c r="B52" s="19" t="s">
         <v>208</v>
       </c>
@@ -5020,7 +5117,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:13">
       <c r="B53" s="19" t="s">
         <v>209</v>
       </c>
@@ -5045,7 +5142,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:13">
       <c r="B54" s="19" t="s">
         <v>210</v>
       </c>
@@ -5072,7 +5169,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:13">
       <c r="B55" s="19" t="s">
         <v>211</v>
       </c>
@@ -5099,7 +5196,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:13">
       <c r="B56" s="19" t="s">
         <v>212</v>
       </c>
@@ -5124,7 +5221,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:13">
       <c r="B57" s="19" t="s">
         <v>213</v>
       </c>
@@ -5149,7 +5246,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:13">
       <c r="B58" s="19" t="s">
         <v>214</v>
       </c>
@@ -5176,7 +5273,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:13">
       <c r="B59" s="19" t="s">
         <v>215</v>
       </c>
@@ -5203,7 +5300,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:13">
       <c r="B60" s="19" t="s">
         <v>216</v>
       </c>
@@ -5230,7 +5327,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:13">
       <c r="B61" s="19" t="s">
         <v>217</v>
       </c>
@@ -5259,7 +5356,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:13">
       <c r="B62" s="19" t="s">
         <v>218</v>
       </c>
@@ -5288,7 +5385,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:13">
       <c r="B63" s="19" t="s">
         <v>219</v>
       </c>
@@ -5315,7 +5412,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:13">
       <c r="B64" s="19" t="s">
         <v>220</v>
       </c>
@@ -5342,7 +5439,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:13">
       <c r="B65" s="19" t="s">
         <v>221</v>
       </c>
@@ -5369,7 +5466,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:13">
       <c r="B66" s="19" t="s">
         <v>222</v>
       </c>
@@ -5396,7 +5493,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:13">
       <c r="B67" s="19" t="s">
         <v>207</v>
       </c>
@@ -5423,7 +5520,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:13">
       <c r="B68" s="19" t="s">
         <v>223</v>
       </c>
@@ -5450,7 +5547,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:13">
       <c r="B69" s="19" t="s">
         <v>224</v>
       </c>
@@ -5477,7 +5574,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:13">
       <c r="B70" s="19" t="s">
         <v>225</v>
       </c>
@@ -5504,7 +5601,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:13">
       <c r="B71" s="19" t="s">
         <v>226</v>
       </c>
@@ -5531,7 +5628,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:13">
       <c r="B72" s="19" t="s">
         <v>227</v>
       </c>
@@ -5558,7 +5655,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:13">
       <c r="B73" s="19" t="s">
         <v>228</v>
       </c>
@@ -5585,7 +5682,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:13">
       <c r="B74" s="19" t="s">
         <v>229</v>
       </c>
@@ -5612,7 +5709,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:13">
       <c r="B75" s="19" t="s">
         <v>230</v>
       </c>
@@ -5639,7 +5736,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:13">
       <c r="B76" s="19" t="s">
         <v>231</v>
       </c>
@@ -5666,7 +5763,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:13">
       <c r="B77" s="19" t="s">
         <v>232</v>
       </c>
@@ -5693,7 +5790,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:13">
       <c r="B78" s="19" t="s">
         <v>233</v>
       </c>
@@ -5720,7 +5817,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:13">
       <c r="B79" s="19" t="s">
         <v>234</v>
       </c>
@@ -5747,7 +5844,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:13">
       <c r="B80" s="19" t="s">
         <v>235</v>
       </c>
@@ -5774,7 +5871,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:13">
       <c r="B81" s="19" t="s">
         <v>236</v>
       </c>
@@ -5801,7 +5898,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:13">
       <c r="B82" s="19" t="s">
         <v>242</v>
       </c>
@@ -5845,9 +5942,9 @@
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>273</v>
       </c>
@@ -5858,7 +5955,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>260</v>
       </c>
@@ -5869,7 +5966,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>266</v>
       </c>
@@ -5883,7 +5980,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>258</v>
       </c>
@@ -5897,7 +5994,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>259</v>
       </c>
@@ -5911,7 +6008,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>252</v>
       </c>
@@ -5925,7 +6022,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>251</v>
       </c>
@@ -5939,7 +6036,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>263</v>
       </c>
@@ -5953,7 +6050,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>264</v>
       </c>
@@ -5967,7 +6064,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>261</v>
       </c>
@@ -5975,7 +6072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>257</v>
       </c>
@@ -5989,7 +6086,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>262</v>
       </c>
@@ -6006,7 +6103,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>265</v>
       </c>
@@ -6023,7 +6120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>267</v>
       </c>
@@ -6040,7 +6137,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>268</v>
       </c>
@@ -6057,7 +6154,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>269</v>
       </c>
@@ -6074,7 +6171,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>270</v>
       </c>
@@ -6091,7 +6188,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>272</v>
       </c>
@@ -6099,7 +6196,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>271</v>
       </c>
@@ -6121,14 +6218,14 @@
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="52.5" customWidth="1"/>
     <col min="3" max="3" width="29.125" customWidth="1"/>
     <col min="5" max="5" width="39.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="22" t="s">
         <v>275</v>
       </c>
@@ -6136,7 +6233,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" s="32" t="s">
         <v>276</v>
       </c>
@@ -6147,31 +6244,31 @@
         <v>282</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" s="32"/>
       <c r="B3" s="23" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" s="32"/>
       <c r="B4" s="23" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" s="32"/>
       <c r="B5" s="23" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6" s="32"/>
       <c r="B6" s="23" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7" s="16" t="s">
         <v>277</v>
       </c>
@@ -6179,7 +6276,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8" s="32" t="s">
         <v>278</v>
       </c>
@@ -6187,19 +6284,19 @@
         <v>293</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="A9" s="32"/>
       <c r="B9" s="23" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10" s="32"/>
       <c r="B10" s="23" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="A11" s="16" t="s">
         <v>279</v>
       </c>
@@ -6207,7 +6304,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="A12" s="16" t="s">
         <v>286</v>
       </c>
@@ -6215,11 +6312,11 @@
         <v>287</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3">
       <c r="A13" s="24"/>
       <c r="B13" s="25"/>
     </row>
-    <row r="20" spans="4:5" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="4:5" ht="94.5">
       <c r="D20" s="15" t="s">
         <v>249</v>
       </c>
@@ -6239,73 +6336,71 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A35:B44"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="14"/>
     <col min="2" max="2" width="83.125" style="5" customWidth="1"/>
     <col min="3" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
+    <row r="35" spans="1:2">
+      <c r="A35" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B35" s="5" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
+    <row r="36" spans="1:2" ht="40.5">
+      <c r="A36" s="14" t="s">
         <v>334</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B36" s="5" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B3" s="5" t="s">
+    <row r="37" spans="1:2">
+      <c r="B37" s="5" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="B4" s="5" t="s">
+    <row r="38" spans="1:2" ht="27">
+      <c r="B38" s="5" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="B5" s="5" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="B6" s="5" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="B7" s="5" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="B8" s="5" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B9" s="5" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B10" s="5" t="s">
-        <v>384</v>
+    <row r="39" spans="1:2" ht="27">
+      <c r="B39" s="5" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="67.5">
+      <c r="B40" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="27">
+      <c r="B41" s="5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="27">
+      <c r="B42" s="5" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="B43" s="5" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="B44" s="5" t="s">
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -6317,65 +6412,89 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.125" style="5" customWidth="1"/>
     <col min="2" max="2" width="48.5" style="5" customWidth="1"/>
     <col min="3" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="27">
       <c r="A1" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="27">
+      <c r="A3" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="27">
+      <c r="A4" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="54">
+      <c r="A5" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="27">
+      <c r="A9" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="54" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>377</v>
+      <c r="B9" s="5" t="s">
+        <v>358</v>
       </c>
     </row>
   </sheetData>
